--- a/Code/Results/Cases/Case_5_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9882935117295264</v>
+        <v>1.019763139172574</v>
       </c>
       <c r="D2">
-        <v>1.008256387461448</v>
+        <v>1.039948239110609</v>
       </c>
       <c r="E2">
-        <v>0.9956134211605969</v>
+        <v>1.021063834547979</v>
       </c>
       <c r="F2">
-        <v>0.9849057665429898</v>
+        <v>1.04426114452</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.03952336100564</v>
+        <v>1.058188043083147</v>
       </c>
       <c r="J2">
-        <v>1.010830089949861</v>
+        <v>1.041368388866692</v>
       </c>
       <c r="K2">
-        <v>1.019601883704335</v>
+        <v>1.050877732070276</v>
       </c>
       <c r="L2">
-        <v>1.007134208182394</v>
+        <v>1.032237313680155</v>
       </c>
       <c r="M2">
-        <v>0.9965794719028985</v>
+        <v>1.05513645814867</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9963560306824595</v>
+        <v>1.028217594358254</v>
       </c>
       <c r="D3">
-        <v>1.01423367079963</v>
+        <v>1.046754629219462</v>
       </c>
       <c r="E3">
-        <v>1.002601248288015</v>
+        <v>1.028413854067851</v>
       </c>
       <c r="F3">
-        <v>0.9939513586231612</v>
+        <v>1.051625422340163</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042319817626544</v>
+        <v>1.061582539728341</v>
       </c>
       <c r="J3">
-        <v>1.016946529322244</v>
+        <v>1.047967499053924</v>
       </c>
       <c r="K3">
-        <v>1.024687611711627</v>
+        <v>1.05682228451241</v>
       </c>
       <c r="L3">
-        <v>1.013200953504874</v>
+        <v>1.038695637726026</v>
       </c>
       <c r="M3">
-        <v>1.004662222483248</v>
+        <v>1.061637758428943</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C4">
-        <v>1.001396145738774</v>
+        <v>1.033502990092325</v>
       </c>
       <c r="D4">
-        <v>1.017972118219141</v>
+        <v>1.051012694633803</v>
       </c>
       <c r="E4">
-        <v>1.006974731643719</v>
+        <v>1.033008655016687</v>
       </c>
       <c r="F4">
-        <v>0.9996122071764886</v>
+        <v>1.056235958226513</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.044051892451296</v>
+        <v>1.063690661526551</v>
       </c>
       <c r="J4">
-        <v>1.020764205265855</v>
+        <v>1.052086849181721</v>
       </c>
       <c r="K4">
-        <v>1.027858368616166</v>
+        <v>1.060532087696722</v>
       </c>
       <c r="L4">
-        <v>1.016989700394454</v>
+        <v>1.042724371284628</v>
       </c>
       <c r="M4">
-        <v>1.009715314770274</v>
+        <v>1.065699927082123</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.003475317827405</v>
+        <v>1.035683426667369</v>
       </c>
       <c r="D5">
-        <v>1.019514632194669</v>
+        <v>1.05276991299247</v>
       </c>
       <c r="E5">
-        <v>1.008780058336469</v>
+        <v>1.034904080234507</v>
       </c>
       <c r="F5">
-        <v>1.001949002332477</v>
+        <v>1.058139467677457</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044762485751751</v>
+        <v>1.064556926471609</v>
       </c>
       <c r="J5">
-        <v>1.022337614121635</v>
+        <v>1.053784705256609</v>
       </c>
       <c r="K5">
-        <v>1.029164260115631</v>
+        <v>1.062060887616399</v>
       </c>
       <c r="L5">
-        <v>1.018551686562517</v>
+        <v>1.044384221800057</v>
       </c>
       <c r="M5">
-        <v>1.011799950145206</v>
+        <v>1.067375110815052</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.003822164724591</v>
+        <v>1.036047171647569</v>
       </c>
       <c r="D6">
-        <v>1.019771968478757</v>
+        <v>1.053063087673811</v>
       </c>
       <c r="E6">
-        <v>1.009081288029579</v>
+        <v>1.035220270189082</v>
       </c>
       <c r="F6">
-        <v>1.002338919262503</v>
+        <v>1.058457098755369</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044880793421001</v>
+        <v>1.064701235661178</v>
       </c>
       <c r="J6">
-        <v>1.022600001075652</v>
+        <v>1.054067852802613</v>
       </c>
       <c r="K6">
-        <v>1.029381981110645</v>
+        <v>1.062315826336651</v>
       </c>
       <c r="L6">
-        <v>1.018812198034572</v>
+        <v>1.044660992611546</v>
       </c>
       <c r="M6">
-        <v>1.012147715722313</v>
+        <v>1.067654529131636</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.001424080387268</v>
+        <v>1.033532284938369</v>
       </c>
       <c r="D7">
-        <v>1.017992841553748</v>
+        <v>1.051036301196482</v>
       </c>
       <c r="E7">
-        <v>1.006998982580825</v>
+        <v>1.033034121194752</v>
       </c>
       <c r="F7">
-        <v>0.9996435968614437</v>
+        <v>1.056261526763882</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.044061455270179</v>
+        <v>1.063702313693949</v>
       </c>
       <c r="J7">
-        <v>1.020785350681319</v>
+        <v>1.052109666589352</v>
       </c>
       <c r="K7">
-        <v>1.027875922407695</v>
+        <v>1.060552634209824</v>
       </c>
       <c r="L7">
-        <v>1.017010690316737</v>
+        <v>1.042746680539541</v>
       </c>
       <c r="M7">
-        <v>1.00974332234709</v>
+        <v>1.06572243628913</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9910565821144126</v>
+        <v>1.022660480475341</v>
       </c>
       <c r="D8">
-        <v>1.010304350776598</v>
+        <v>1.042280083000318</v>
       </c>
       <c r="E8">
-        <v>0.9980070329389579</v>
+        <v>1.023582665448746</v>
       </c>
       <c r="F8">
-        <v>0.9880044781338807</v>
+        <v>1.046783389718884</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040485077460032</v>
+        <v>1.059354256620115</v>
       </c>
       <c r="J8">
-        <v>1.012927433424971</v>
+        <v>1.043631166157085</v>
       </c>
       <c r="K8">
-        <v>1.021346528955448</v>
+        <v>1.052916252659187</v>
       </c>
       <c r="L8">
-        <v>1.009214068077988</v>
+        <v>1.034452395544619</v>
       </c>
       <c r="M8">
-        <v>0.9993494260290132</v>
+        <v>1.057364854541537</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9712982102252149</v>
+        <v>1.001942527356264</v>
       </c>
       <c r="D9">
-        <v>0.9956742712078069</v>
+        <v>1.025624366111812</v>
       </c>
       <c r="E9">
-        <v>0.9809174770270556</v>
+        <v>1.005574460862721</v>
       </c>
       <c r="F9">
-        <v>0.9658695496820285</v>
+        <v>1.028782593621879</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03354117445582</v>
+        <v>1.050956931319561</v>
       </c>
       <c r="J9">
-        <v>0.9979068668998863</v>
+        <v>1.027426875963813</v>
       </c>
       <c r="K9">
-        <v>1.008837922397676</v>
+        <v>1.038314949292646</v>
       </c>
       <c r="L9">
-        <v>0.9943279329888359</v>
+        <v>1.018577739163799</v>
       </c>
       <c r="M9">
-        <v>0.9795417556496954</v>
+        <v>1.041425336886667</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9569060288404015</v>
+        <v>0.9868515725729642</v>
       </c>
       <c r="D10">
-        <v>0.9850448388224262</v>
+        <v>1.013523495653694</v>
       </c>
       <c r="E10">
-        <v>0.9685094285778667</v>
+        <v>0.9924663521992581</v>
       </c>
       <c r="F10">
-        <v>0.9497719828186704</v>
+        <v>1.015723514753415</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.028401282216276</v>
+        <v>1.044769153767215</v>
       </c>
       <c r="J10">
-        <v>0.9869402710251937</v>
+        <v>1.015596750936554</v>
       </c>
       <c r="K10">
-        <v>0.999689467289501</v>
+        <v>1.027652797959157</v>
       </c>
       <c r="L10">
-        <v>0.9834715248345315</v>
+        <v>1.00697297439721</v>
       </c>
       <c r="M10">
-        <v>0.9651114690797465</v>
+        <v>1.029814563320316</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9503249766689115</v>
+        <v>0.9799509191116627</v>
       </c>
       <c r="D11">
-        <v>0.9801939549935222</v>
+        <v>1.00800024158135</v>
       </c>
       <c r="E11">
-        <v>0.962847275488093</v>
+        <v>0.9864764528538439</v>
       </c>
       <c r="F11">
-        <v>0.9424154389518812</v>
+        <v>1.009767384510216</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.026032998658909</v>
+        <v>1.041924082843733</v>
       </c>
       <c r="J11">
-        <v>0.9819209597816335</v>
+        <v>1.010182221184259</v>
       </c>
       <c r="K11">
-        <v>0.995499306245251</v>
+        <v>1.022772845839566</v>
       </c>
       <c r="L11">
-        <v>0.9785055791180126</v>
+        <v>1.001657990666605</v>
       </c>
       <c r="M11">
-        <v>0.9585116449055409</v>
+        <v>1.024507423403674</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9478218998841466</v>
+        <v>0.9773262694701434</v>
       </c>
       <c r="D12">
-        <v>0.9783506895059427</v>
+        <v>1.005901273519201</v>
       </c>
       <c r="E12">
-        <v>0.9606956511417909</v>
+        <v>0.9841990085956183</v>
       </c>
       <c r="F12">
-        <v>0.9396178690164964</v>
+        <v>1.00750458330726</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025129674722998</v>
+        <v>1.040839758584358</v>
       </c>
       <c r="J12">
-        <v>0.9800113226730222</v>
+        <v>1.00812221615252</v>
       </c>
       <c r="K12">
-        <v>0.9939047513048941</v>
+        <v>1.02091628107592</v>
       </c>
       <c r="L12">
-        <v>0.9766166938115031</v>
+        <v>0.9996353235361863</v>
       </c>
       <c r="M12">
-        <v>0.9560011384922543</v>
+        <v>1.022489405951645</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9483615789605067</v>
+        <v>0.9778921609788056</v>
       </c>
       <c r="D13">
-        <v>0.9787480248837396</v>
+        <v>1.006353739186006</v>
       </c>
       <c r="E13">
-        <v>0.9611594631752286</v>
+        <v>0.984690000799372</v>
       </c>
       <c r="F13">
-        <v>0.9402210252087927</v>
+        <v>1.007992335622029</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025324549805511</v>
+        <v>1.041073643131821</v>
       </c>
       <c r="J13">
-        <v>0.9804230753629036</v>
+        <v>1.008566391084789</v>
       </c>
       <c r="K13">
-        <v>0.9942485820981244</v>
+        <v>1.021316587097477</v>
       </c>
       <c r="L13">
-        <v>0.9770239516700233</v>
+        <v>1.000071471755008</v>
       </c>
       <c r="M13">
-        <v>0.9565424340929795</v>
+        <v>1.022924475238174</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9501193057114182</v>
+        <v>0.9797352591062728</v>
       </c>
       <c r="D14">
-        <v>0.9800424616064941</v>
+        <v>1.007827737406621</v>
       </c>
       <c r="E14">
-        <v>0.9626704415908273</v>
+        <v>0.986289304283824</v>
       </c>
       <c r="F14">
-        <v>0.9421855621452582</v>
+        <v>1.009581402120594</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02595882586662</v>
+        <v>1.041835030850463</v>
       </c>
       <c r="J14">
-        <v>0.9817640606567889</v>
+        <v>1.010012967646875</v>
       </c>
       <c r="K14">
-        <v>0.995368301939262</v>
+        <v>1.02262030584143</v>
       </c>
       <c r="L14">
-        <v>0.9783503758697424</v>
+        <v>1.001491815670337</v>
       </c>
       <c r="M14">
-        <v>0.9583053699033547</v>
+        <v>1.024341596266302</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9511943358676318</v>
+        <v>0.9808625008860808</v>
       </c>
       <c r="D15">
-        <v>0.9808343816021404</v>
+        <v>1.008729480591729</v>
       </c>
       <c r="E15">
-        <v>0.963594822610977</v>
+        <v>0.9872675522601048</v>
       </c>
       <c r="F15">
-        <v>0.9433871324069386</v>
+        <v>1.010553628092665</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.026346419959099</v>
+        <v>1.042300411541687</v>
       </c>
       <c r="J15">
-        <v>0.9825841413406482</v>
+        <v>1.010897622233395</v>
       </c>
       <c r="K15">
-        <v>0.9960530208065798</v>
+        <v>1.023417604674475</v>
       </c>
       <c r="L15">
-        <v>0.9791616107787431</v>
+        <v>1.002360357666731</v>
       </c>
       <c r="M15">
-        <v>0.9593835450521684</v>
+        <v>1.02520838807211</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9573349353958089</v>
+        <v>0.9873013065339356</v>
       </c>
       <c r="D16">
-        <v>0.9853612076290454</v>
+        <v>1.013883691077309</v>
       </c>
       <c r="E16">
-        <v>0.9688787038749189</v>
+        <v>0.9928568288940066</v>
       </c>
       <c r="F16">
-        <v>0.9502515045961976</v>
+        <v>1.01611203206489</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.028555271408838</v>
+        <v>1.044954264360725</v>
       </c>
       <c r="J16">
-        <v>0.9872673094084374</v>
+        <v>1.015949539769877</v>
       </c>
       <c r="K16">
-        <v>0.9999624259248419</v>
+        <v>1.027970760430259</v>
       </c>
       <c r="L16">
-        <v>0.9837951471658875</v>
+        <v>1.007319203493598</v>
       </c>
       <c r="M16">
-        <v>0.9655415643657275</v>
+        <v>1.030160505524006</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9610892775543913</v>
+        <v>0.9912379471002818</v>
       </c>
       <c r="D17">
-        <v>0.9881315831570803</v>
+        <v>1.017037740876179</v>
       </c>
       <c r="E17">
-        <v>0.972112402186766</v>
+        <v>0.9962752498281238</v>
       </c>
       <c r="F17">
-        <v>0.9544493625964952</v>
+        <v>1.019514585415239</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029901180530811</v>
+        <v>1.046572852436336</v>
       </c>
       <c r="J17">
-        <v>0.9901294617275817</v>
+        <v>1.019037052681898</v>
       </c>
       <c r="K17">
-        <v>1.002350958808499</v>
+        <v>1.030753489052782</v>
       </c>
       <c r="L17">
-        <v>0.9866277328521721</v>
+        <v>1.010348904126196</v>
       </c>
       <c r="M17">
-        <v>0.9693061520064694</v>
+        <v>1.033188891354374</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9632458976959949</v>
+        <v>0.9934992782466874</v>
       </c>
       <c r="D18">
-        <v>0.9897238536053556</v>
+        <v>1.018850452818643</v>
       </c>
       <c r="E18">
-        <v>0.9739710174701902</v>
+        <v>0.9982392641266883</v>
       </c>
       <c r="F18">
-        <v>0.9568611702804038</v>
+        <v>1.021470537827768</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03067262655676</v>
+        <v>1.047501156769771</v>
       </c>
       <c r="J18">
-        <v>0.9917731330963206</v>
+        <v>1.020810144716539</v>
       </c>
       <c r="K18">
-        <v>1.003722356050561</v>
+        <v>1.032351546962418</v>
       </c>
       <c r="L18">
-        <v>0.9882546979102503</v>
+        <v>1.012088459536262</v>
       </c>
       <c r="M18">
-        <v>0.9714685380462217</v>
+        <v>1.034928675065115</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9639757840513385</v>
+        <v>0.9942646019411158</v>
       </c>
       <c r="D19">
-        <v>0.9902628813310997</v>
+        <v>1.019464095774521</v>
       </c>
       <c r="E19">
-        <v>0.9746002230509728</v>
+        <v>0.9989040207856835</v>
       </c>
       <c r="F19">
-        <v>0.9576774980270182</v>
+        <v>1.022132742054565</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.030933424139863</v>
+        <v>1.047815079621087</v>
       </c>
       <c r="J19">
-        <v>0.9923293378606545</v>
+        <v>1.021410144819103</v>
       </c>
       <c r="K19">
-        <v>1.004186375119447</v>
+        <v>1.032892314912263</v>
       </c>
       <c r="L19">
-        <v>0.9888052955312641</v>
+        <v>1.012677053944158</v>
       </c>
       <c r="M19">
-        <v>0.9722003578531243</v>
+        <v>1.035517511506888</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9606899497645872</v>
+        <v>0.9908192300810166</v>
       </c>
       <c r="D20">
-        <v>0.9878368212986897</v>
+        <v>1.016702165280864</v>
       </c>
       <c r="E20">
-        <v>0.9717683395551302</v>
+        <v>0.9959116135161621</v>
       </c>
       <c r="F20">
-        <v>0.954002818386221</v>
+        <v>1.019152526664301</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029758198715239</v>
+        <v>1.046400844294911</v>
       </c>
       <c r="J20">
-        <v>0.9898250764259834</v>
+        <v>1.018708700601718</v>
       </c>
       <c r="K20">
-        <v>1.002096971313327</v>
+        <v>1.030457550256802</v>
       </c>
       <c r="L20">
-        <v>0.9863264634416343</v>
+        <v>1.010026735249645</v>
       </c>
       <c r="M20">
-        <v>0.9689057474533574</v>
+        <v>1.032866759490012</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9496033705011895</v>
+        <v>0.9791942656893938</v>
       </c>
       <c r="D21">
-        <v>0.9796624625659192</v>
+        <v>1.007395032189001</v>
       </c>
       <c r="E21">
-        <v>0.9622268776086733</v>
+        <v>0.985819846748255</v>
       </c>
       <c r="F21">
-        <v>0.9416089121517589</v>
+        <v>1.009114899233343</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025772719418126</v>
+        <v>1.041611604715794</v>
       </c>
       <c r="J21">
-        <v>0.9813704633429524</v>
+        <v>1.009588377975227</v>
       </c>
       <c r="K21">
-        <v>0.9950396586531246</v>
+        <v>1.022237644867874</v>
       </c>
       <c r="L21">
-        <v>0.9779610400640861</v>
+        <v>1.001074940259137</v>
       </c>
       <c r="M21">
-        <v>0.9577879144384247</v>
+        <v>1.023925620503841</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9422900265905533</v>
+        <v>0.9715256975340419</v>
       </c>
       <c r="D22">
-        <v>0.9742806323601715</v>
+        <v>1.001266122989453</v>
       </c>
       <c r="E22">
-        <v>0.9559443654483525</v>
+        <v>0.979167497742239</v>
       </c>
       <c r="F22">
-        <v>0.9334357707281662</v>
+        <v>1.002508874975866</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02312875335931</v>
+        <v>1.038439446631227</v>
       </c>
       <c r="J22">
-        <v>0.9757900999516277</v>
+        <v>1.003568602966614</v>
       </c>
       <c r="K22">
-        <v>0.9903794126148636</v>
+        <v>1.016812539394276</v>
       </c>
       <c r="L22">
-        <v>0.9724421819486629</v>
+        <v>0.9951632637438041</v>
       </c>
       <c r="M22">
-        <v>0.9504521967105733</v>
+        <v>1.018030793868246</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9462017890806118</v>
+        <v>0.9756274675828936</v>
       </c>
       <c r="D23">
-        <v>0.9771581754462291</v>
+        <v>1.004543260622934</v>
       </c>
       <c r="E23">
-        <v>0.9593035962934786</v>
+        <v>0.9827251879713343</v>
       </c>
       <c r="F23">
-        <v>0.9378072518558046</v>
+        <v>1.006040760418485</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.024544299243824</v>
+        <v>1.040137326772638</v>
       </c>
       <c r="J23">
-        <v>0.9787751748241352</v>
+        <v>1.006788731062153</v>
       </c>
       <c r="K23">
-        <v>0.9928724673602813</v>
+        <v>1.019714510294909</v>
       </c>
       <c r="L23">
-        <v>0.9753941066039433</v>
+        <v>0.9983258580248497</v>
       </c>
       <c r="M23">
-        <v>0.9543761246931011</v>
+        <v>1.021183429918325</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9608704910255115</v>
+        <v>0.9910085374856465</v>
       </c>
       <c r="D24">
-        <v>0.9879700842535754</v>
+        <v>1.016853880507671</v>
       </c>
       <c r="E24">
-        <v>0.9719238914085394</v>
+        <v>0.99607601709607</v>
       </c>
       <c r="F24">
-        <v>0.9542047054912601</v>
+        <v>1.019316213740351</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029822847908848</v>
+        <v>1.046478615973275</v>
       </c>
       <c r="J24">
-        <v>0.9899626943534166</v>
+        <v>1.018857154325656</v>
       </c>
       <c r="K24">
-        <v>1.002211804401057</v>
+        <v>1.030591349381011</v>
       </c>
       <c r="L24">
-        <v>0.9864626717710021</v>
+        <v>1.0101723944853</v>
       </c>
       <c r="M24">
-        <v>0.9690867758983823</v>
+        <v>1.033012398938418</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.97660337971579</v>
+        <v>1.007505262019205</v>
       </c>
       <c r="D25">
-        <v>0.9995987822732468</v>
+        <v>1.030091921188992</v>
       </c>
       <c r="E25">
-        <v>0.985499885692266</v>
+        <v>1.010408644364244</v>
       </c>
       <c r="F25">
-        <v>0.9718079868612224</v>
+        <v>1.033607708270236</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035419885350052</v>
+        <v>1.053223999362709</v>
       </c>
       <c r="J25">
-        <v>1.001944628809487</v>
+        <v>1.031782657448635</v>
       </c>
       <c r="K25">
-        <v>1.01220332982457</v>
+        <v>1.042240391765318</v>
       </c>
       <c r="L25">
-        <v>0.9983275466240229</v>
+        <v>1.022847500110369</v>
       </c>
       <c r="M25">
-        <v>0.9848603033274314</v>
+        <v>1.045705784312945</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.019763139172574</v>
+        <v>0.981219185531403</v>
       </c>
       <c r="D2">
-        <v>1.039948239110609</v>
+        <v>1.00339773120742</v>
       </c>
       <c r="E2">
-        <v>1.021063834547979</v>
+        <v>0.9902698399844028</v>
       </c>
       <c r="F2">
-        <v>1.04426114452</v>
+        <v>0.957048757312301</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.058188043083147</v>
+        <v>1.038241170009569</v>
       </c>
       <c r="J2">
-        <v>1.041368388866692</v>
+        <v>1.00397651460739</v>
       </c>
       <c r="K2">
-        <v>1.050877732070276</v>
+        <v>1.014809932330033</v>
       </c>
       <c r="L2">
-        <v>1.032237313680155</v>
+        <v>1.001866416718737</v>
       </c>
       <c r="M2">
-        <v>1.05513645814867</v>
+        <v>0.9691407761885011</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028217594358254</v>
+        <v>0.9863286145925536</v>
       </c>
       <c r="D3">
-        <v>1.046754629219462</v>
+        <v>1.007045215774489</v>
       </c>
       <c r="E3">
-        <v>1.028413854067851</v>
+        <v>0.9943621624685889</v>
       </c>
       <c r="F3">
-        <v>1.051625422340163</v>
+        <v>0.9649698911699085</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.061582539728341</v>
+        <v>1.039588054810882</v>
       </c>
       <c r="J3">
-        <v>1.047967499053924</v>
+        <v>1.007199043169476</v>
       </c>
       <c r="K3">
-        <v>1.05682228451241</v>
+        <v>1.017588738465096</v>
       </c>
       <c r="L3">
-        <v>1.038695637726026</v>
+        <v>1.00506769238984</v>
       </c>
       <c r="M3">
-        <v>1.061637758428943</v>
+        <v>0.9760715179736811</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.033502990092325</v>
+        <v>0.9895509374847767</v>
       </c>
       <c r="D4">
-        <v>1.051012694633803</v>
+        <v>1.009345041991923</v>
       </c>
       <c r="E4">
-        <v>1.033008655016687</v>
+        <v>0.9969493466652879</v>
       </c>
       <c r="F4">
-        <v>1.056235958226513</v>
+        <v>0.9699511694690508</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.063690661526551</v>
+        <v>1.040420420289405</v>
       </c>
       <c r="J4">
-        <v>1.052086849181721</v>
+        <v>1.009225761458618</v>
       </c>
       <c r="K4">
-        <v>1.060532087696722</v>
+        <v>1.019331973962846</v>
       </c>
       <c r="L4">
-        <v>1.042724371284628</v>
+        <v>1.007084730366979</v>
       </c>
       <c r="M4">
-        <v>1.065699927082123</v>
+        <v>0.9804263166729625</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.035683426667369</v>
+        <v>0.9908864198304774</v>
       </c>
       <c r="D5">
-        <v>1.05276991299247</v>
+        <v>1.010297995180265</v>
       </c>
       <c r="E5">
-        <v>1.034904080234507</v>
+        <v>0.9980230609125629</v>
       </c>
       <c r="F5">
-        <v>1.058139467677457</v>
+        <v>0.9720127117232037</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.064556926471609</v>
+        <v>1.040761231243413</v>
       </c>
       <c r="J5">
-        <v>1.053784705256609</v>
+        <v>1.010064363507497</v>
       </c>
       <c r="K5">
-        <v>1.062060887616399</v>
+        <v>1.020052177536032</v>
       </c>
       <c r="L5">
-        <v>1.044384221800057</v>
+        <v>1.007920203713482</v>
       </c>
       <c r="M5">
-        <v>1.067375110815052</v>
+        <v>0.9822276617746248</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.036047171647569</v>
+        <v>0.9911095529126832</v>
       </c>
       <c r="D6">
-        <v>1.053063087673811</v>
+        <v>1.010457200814237</v>
       </c>
       <c r="E6">
-        <v>1.035220270189082</v>
+        <v>0.9982025422464802</v>
       </c>
       <c r="F6">
-        <v>1.058457098755369</v>
+        <v>0.9723569963018939</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064701235661178</v>
+        <v>1.040817927552874</v>
       </c>
       <c r="J6">
-        <v>1.054067852802613</v>
+        <v>1.010204396688544</v>
       </c>
       <c r="K6">
-        <v>1.062315826336651</v>
+        <v>1.020172374130133</v>
       </c>
       <c r="L6">
-        <v>1.044660992611546</v>
+        <v>1.008059765816375</v>
       </c>
       <c r="M6">
-        <v>1.067654529131636</v>
+        <v>0.9825284369935656</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +611,34 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.033532284938369</v>
+        <v>0.9895688565131957</v>
       </c>
       <c r="D7">
-        <v>1.051036301196482</v>
+        <v>1.009357829289343</v>
       </c>
       <c r="E7">
-        <v>1.033034121194752</v>
+        <v>0.996963747661343</v>
       </c>
       <c r="F7">
-        <v>1.056261526763882</v>
+        <v>0.9699788414941598</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.063702313693949</v>
+        <v>1.0404250097099</v>
       </c>
       <c r="J7">
-        <v>1.052109666589352</v>
+        <v>1.009237018950011</v>
       </c>
       <c r="K7">
-        <v>1.060552634209824</v>
+        <v>1.019341646469462</v>
       </c>
       <c r="L7">
-        <v>1.042746680539541</v>
+        <v>1.007095942398035</v>
       </c>
       <c r="M7">
-        <v>1.06572243628913</v>
+        <v>0.9804504997894717</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.022660480475341</v>
+        <v>0.9829638488205467</v>
       </c>
       <c r="D8">
-        <v>1.042280083000318</v>
+        <v>1.004643254198636</v>
       </c>
       <c r="E8">
-        <v>1.023582665448746</v>
+        <v>0.991665842187341</v>
       </c>
       <c r="F8">
-        <v>1.046783389718884</v>
+        <v>0.9597568245885811</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.059354256620115</v>
+        <v>1.038704626424803</v>
       </c>
       <c r="J8">
-        <v>1.043631166157085</v>
+        <v>1.005078045917792</v>
       </c>
       <c r="K8">
-        <v>1.052916252659187</v>
+        <v>1.015760694865855</v>
       </c>
       <c r="L8">
-        <v>1.034452395544619</v>
+        <v>1.002959901071466</v>
       </c>
       <c r="M8">
-        <v>1.057364854541537</v>
+        <v>0.9715109929842173</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +687,34 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001942527356264</v>
+        <v>0.9706397828340947</v>
       </c>
       <c r="D9">
-        <v>1.025624366111812</v>
+        <v>0.9958464683967071</v>
       </c>
       <c r="E9">
-        <v>1.005574460862721</v>
+        <v>0.9818339935259366</v>
       </c>
       <c r="F9">
-        <v>1.028782593621879</v>
+        <v>0.9405432135264162</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.050956931319561</v>
+        <v>1.035360451760741</v>
       </c>
       <c r="J9">
-        <v>1.027426875963813</v>
+        <v>0.9972736975228468</v>
       </c>
       <c r="K9">
-        <v>1.038314949292646</v>
+        <v>1.00900729513447</v>
       </c>
       <c r="L9">
-        <v>1.018577739163799</v>
+        <v>0.9952288419219846</v>
       </c>
       <c r="M9">
-        <v>1.041425336886667</v>
+        <v>0.9546806909743604</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9868515725729642</v>
+        <v>0.9618964237483744</v>
       </c>
       <c r="D10">
-        <v>1.013523495653694</v>
+        <v>0.98961158003859</v>
       </c>
       <c r="E10">
-        <v>0.9924663521992581</v>
+        <v>0.9748989054790622</v>
       </c>
       <c r="F10">
-        <v>1.015723514753415</v>
+        <v>0.9267746904126742</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044769153767215</v>
+        <v>1.03290111928162</v>
       </c>
       <c r="J10">
-        <v>1.015596750936554</v>
+        <v>0.9917078611684931</v>
       </c>
       <c r="K10">
-        <v>1.027652797959157</v>
+        <v>1.004170968489327</v>
       </c>
       <c r="L10">
-        <v>1.00697297439721</v>
+        <v>0.9897366559942298</v>
       </c>
       <c r="M10">
-        <v>1.029814563320316</v>
+        <v>0.9426051220879255</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9799509191116627</v>
+        <v>0.9579684183624044</v>
       </c>
       <c r="D11">
-        <v>1.00800024158135</v>
+        <v>0.9868134011031707</v>
       </c>
       <c r="E11">
-        <v>0.9864764528538439</v>
+        <v>0.9717937591061618</v>
       </c>
       <c r="F11">
-        <v>1.009767384510216</v>
+        <v>0.9205453669659153</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.041924082843733</v>
+        <v>1.031776647167159</v>
       </c>
       <c r="J11">
-        <v>1.010182221184259</v>
+        <v>0.9892006815919099</v>
       </c>
       <c r="K11">
-        <v>1.022772845839566</v>
+        <v>1.00198835687805</v>
       </c>
       <c r="L11">
-        <v>1.001657990666605</v>
+        <v>0.9872679553184798</v>
       </c>
       <c r="M11">
-        <v>1.024507423403674</v>
+        <v>0.9371391729891921</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9773262694701434</v>
+        <v>0.9564864047466487</v>
       </c>
       <c r="D12">
-        <v>1.005901273519201</v>
+        <v>0.9857582293938045</v>
       </c>
       <c r="E12">
-        <v>0.9841990085956183</v>
+        <v>0.9706238668712281</v>
       </c>
       <c r="F12">
-        <v>1.00750458330726</v>
+        <v>0.9181874021121942</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040839758584358</v>
+        <v>1.031349533925137</v>
       </c>
       <c r="J12">
-        <v>1.00812221615252</v>
+        <v>0.9882537439188479</v>
       </c>
       <c r="K12">
-        <v>1.02091628107592</v>
+        <v>1.001163461928836</v>
       </c>
       <c r="L12">
-        <v>0.9996353235361863</v>
+        <v>0.9863363701919039</v>
       </c>
       <c r="M12">
-        <v>1.022489405951645</v>
+        <v>0.9350698751394242</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +839,34 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9778921609788056</v>
+        <v>0.9568053696704983</v>
       </c>
       <c r="D13">
-        <v>1.006353739186006</v>
+        <v>0.9859852999683772</v>
       </c>
       <c r="E13">
-        <v>0.984690000799372</v>
+        <v>0.9708755793100738</v>
       </c>
       <c r="F13">
-        <v>1.007992335622029</v>
+        <v>0.9186952588608314</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.041073643131821</v>
+        <v>1.031441586469349</v>
       </c>
       <c r="J13">
-        <v>1.008566391084789</v>
+        <v>0.9884575923422847</v>
       </c>
       <c r="K13">
-        <v>1.021316587097477</v>
+        <v>1.001341061517973</v>
       </c>
       <c r="L13">
-        <v>1.000071471755008</v>
+        <v>0.9865368762579635</v>
       </c>
       <c r="M13">
-        <v>1.022924475238174</v>
+        <v>0.9355155704369047</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +877,34 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9797352591062728</v>
+        <v>0.9578463934705761</v>
       </c>
       <c r="D14">
-        <v>1.007827737406621</v>
+        <v>0.98672650893229</v>
       </c>
       <c r="E14">
-        <v>0.986289304283824</v>
+        <v>0.9716973991799196</v>
       </c>
       <c r="F14">
-        <v>1.009581402120594</v>
+        <v>0.9203513814388039</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.041835030850463</v>
+        <v>1.031741537307171</v>
       </c>
       <c r="J14">
-        <v>1.010012967646875</v>
+        <v>0.9891227334753616</v>
       </c>
       <c r="K14">
-        <v>1.02262030584143</v>
+        <v>1.001920465470626</v>
       </c>
       <c r="L14">
-        <v>1.001491815670337</v>
+        <v>0.987191254190854</v>
       </c>
       <c r="M14">
-        <v>1.024341596266302</v>
+        <v>0.9369689408719306</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9808625008860808</v>
+        <v>0.9584847059601083</v>
       </c>
       <c r="D15">
-        <v>1.008729480591729</v>
+        <v>0.9871810658748804</v>
       </c>
       <c r="E15">
-        <v>0.9872675522601048</v>
+        <v>0.9722015263162447</v>
       </c>
       <c r="F15">
-        <v>1.010553628092665</v>
+        <v>0.9213658007704681</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042300411541687</v>
+        <v>1.031925081359348</v>
       </c>
       <c r="J15">
-        <v>1.010897622233395</v>
+        <v>0.9895304398912376</v>
       </c>
       <c r="K15">
-        <v>1.023417604674475</v>
+        <v>1.00227554871255</v>
       </c>
       <c r="L15">
-        <v>1.002360357666731</v>
+        <v>0.9875924717273895</v>
       </c>
       <c r="M15">
-        <v>1.02520838807211</v>
+        <v>0.9378591339691718</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9873013065339356</v>
+        <v>0.9621539838660996</v>
       </c>
       <c r="D16">
-        <v>1.013883691077309</v>
+        <v>0.9897951279384184</v>
       </c>
       <c r="E16">
-        <v>0.9928568288940066</v>
+        <v>0.97510273532348</v>
       </c>
       <c r="F16">
-        <v>1.01611203206489</v>
+        <v>0.927182150842784</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044954264360725</v>
+        <v>1.032974451610629</v>
       </c>
       <c r="J16">
-        <v>1.015949539769877</v>
+        <v>0.9918721195975587</v>
       </c>
       <c r="K16">
-        <v>1.027970760430259</v>
+        <v>1.004313884178349</v>
       </c>
       <c r="L16">
-        <v>1.007319203493598</v>
+        <v>0.9898985052715564</v>
       </c>
       <c r="M16">
-        <v>1.030160505524006</v>
+        <v>0.9429626046942537</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9912379471002818</v>
+        <v>0.9644164898374051</v>
       </c>
       <c r="D17">
-        <v>1.017037740876179</v>
+        <v>0.9914078240225681</v>
       </c>
       <c r="E17">
-        <v>0.9962752498281238</v>
+        <v>0.9768944516286038</v>
       </c>
       <c r="F17">
-        <v>1.019514585415239</v>
+        <v>0.9307563669027322</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046572852436336</v>
+        <v>1.033616420394139</v>
       </c>
       <c r="J17">
-        <v>1.019037052681898</v>
+        <v>0.9933142716000373</v>
       </c>
       <c r="K17">
-        <v>1.030753489052782</v>
+        <v>1.005568201295615</v>
       </c>
       <c r="L17">
-        <v>1.010348904126196</v>
+        <v>0.9913201077290678</v>
       </c>
       <c r="M17">
-        <v>1.033188891354374</v>
+        <v>0.9460981384749947</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9934992782466874</v>
+        <v>0.9657225825287733</v>
       </c>
       <c r="D18">
-        <v>1.018850452818643</v>
+        <v>0.9923390592915822</v>
       </c>
       <c r="E18">
-        <v>0.9982392641266883</v>
+        <v>0.9779297516561214</v>
       </c>
       <c r="F18">
-        <v>1.021470537827768</v>
+        <v>0.9328156318980912</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047501156769771</v>
+        <v>1.03398515824819</v>
       </c>
       <c r="J18">
-        <v>1.020810144716539</v>
+        <v>0.9941461603184263</v>
       </c>
       <c r="K18">
-        <v>1.032351546962418</v>
+        <v>1.006291353954827</v>
       </c>
       <c r="L18">
-        <v>1.012088459536262</v>
+        <v>0.9921406406769989</v>
       </c>
       <c r="M18">
-        <v>1.034928675065115</v>
+        <v>0.9479044105147425</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9942646019411158</v>
+        <v>0.9661656682232174</v>
       </c>
       <c r="D19">
-        <v>1.019464095774521</v>
+        <v>0.9926550172114202</v>
       </c>
       <c r="E19">
-        <v>0.9989040207856835</v>
+        <v>0.9782811365662196</v>
       </c>
       <c r="F19">
-        <v>1.022132742054565</v>
+        <v>0.9335135715198163</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047815079621087</v>
+        <v>1.034109933408725</v>
       </c>
       <c r="J19">
-        <v>1.021410144819103</v>
+        <v>0.9944282668756868</v>
       </c>
       <c r="K19">
-        <v>1.032892314912263</v>
+        <v>1.006536519151761</v>
       </c>
       <c r="L19">
-        <v>1.012677053944158</v>
+        <v>0.9924189801630496</v>
       </c>
       <c r="M19">
-        <v>1.035517511506888</v>
+        <v>0.9485165592965157</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9908192300810166</v>
+        <v>0.9641751611418689</v>
       </c>
       <c r="D20">
-        <v>1.016702165280864</v>
+        <v>0.9912357786570103</v>
       </c>
       <c r="E20">
-        <v>0.9959116135161621</v>
+        <v>0.9767032366810817</v>
       </c>
       <c r="F20">
-        <v>1.019152526664301</v>
+        <v>0.9303755532448585</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046400844294911</v>
+        <v>1.033548137342338</v>
       </c>
       <c r="J20">
-        <v>1.018708700601718</v>
+        <v>0.9931605109983069</v>
       </c>
       <c r="K20">
-        <v>1.030457550256802</v>
+        <v>1.00543450705799</v>
       </c>
       <c r="L20">
-        <v>1.010026735249645</v>
+        <v>0.9911684862138205</v>
       </c>
       <c r="M20">
-        <v>1.032866759490012</v>
+        <v>0.9457640892668289</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9791942656893938</v>
+        <v>0.9575404862169259</v>
       </c>
       <c r="D21">
-        <v>1.007395032189001</v>
+        <v>0.9865086863312519</v>
       </c>
       <c r="E21">
-        <v>0.985819846748255</v>
+        <v>0.9714558591115576</v>
       </c>
       <c r="F21">
-        <v>1.009114899233343</v>
+        <v>0.9198649466785971</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.041611604715794</v>
+        <v>1.031653473861285</v>
       </c>
       <c r="J21">
-        <v>1.009588377975227</v>
+        <v>0.9889273074419189</v>
       </c>
       <c r="K21">
-        <v>1.022237644867874</v>
+        <v>1.00175024439445</v>
       </c>
       <c r="L21">
-        <v>1.001074940259137</v>
+        <v>0.9869989677872726</v>
       </c>
       <c r="M21">
-        <v>1.023925620503841</v>
+        <v>0.9365420654298056</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,34 +1181,34 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9715256975340419</v>
+        <v>0.9532351161219829</v>
       </c>
       <c r="D22">
-        <v>1.001266122989453</v>
+        <v>0.9834445543866706</v>
       </c>
       <c r="E22">
-        <v>0.979167497742239</v>
+        <v>0.9680604811316966</v>
       </c>
       <c r="F22">
-        <v>1.002508874975866</v>
+        <v>0.9129989143623749</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038439446631227</v>
+        <v>1.030407358681564</v>
       </c>
       <c r="J22">
-        <v>1.003568602966614</v>
+        <v>0.9861745023187498</v>
       </c>
       <c r="K22">
-        <v>1.016812539394276</v>
+        <v>0.9993512701017183</v>
       </c>
       <c r="L22">
-        <v>0.9951632637438041</v>
+        <v>0.984292377406584</v>
       </c>
       <c r="M22">
-        <v>1.018030793868246</v>
+        <v>0.9305161547868053</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9756274675828936</v>
+        <v>0.9555307590531119</v>
       </c>
       <c r="D23">
-        <v>1.004543260622934</v>
+        <v>0.985078000321663</v>
       </c>
       <c r="E23">
-        <v>0.9827251879713343</v>
+        <v>0.9698699657391489</v>
       </c>
       <c r="F23">
-        <v>1.006040760418485</v>
+        <v>0.9166646012891502</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040137326772638</v>
+        <v>1.031073325143771</v>
       </c>
       <c r="J23">
-        <v>1.006788731062153</v>
+        <v>0.9876428520729357</v>
       </c>
       <c r="K23">
-        <v>1.019714510294909</v>
+        <v>1.000631158018872</v>
       </c>
       <c r="L23">
-        <v>0.9983258580248497</v>
+        <v>0.9857356167544042</v>
       </c>
       <c r="M23">
-        <v>1.021183429918325</v>
+        <v>0.9337334300181107</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9910085374856465</v>
+        <v>0.9642842490643397</v>
       </c>
       <c r="D24">
-        <v>1.016853880507671</v>
+        <v>0.9913135475975361</v>
       </c>
       <c r="E24">
-        <v>0.99607601709607</v>
+        <v>0.9767896686170027</v>
       </c>
       <c r="F24">
-        <v>1.019316213740351</v>
+        <v>0.9305477051020499</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046478615973275</v>
+        <v>1.033579009129134</v>
       </c>
       <c r="J24">
-        <v>1.018857154325656</v>
+        <v>0.9932300174387069</v>
       </c>
       <c r="K24">
-        <v>1.030591349381011</v>
+        <v>1.005494943836386</v>
       </c>
       <c r="L24">
-        <v>1.0101723944853</v>
+        <v>0.9912370241501431</v>
       </c>
       <c r="M24">
-        <v>1.033012398938418</v>
+        <v>0.9459151014143484</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007505262019205</v>
+        <v>0.9739135200438036</v>
       </c>
       <c r="D25">
-        <v>1.030091921188992</v>
+        <v>0.9981826442341504</v>
       </c>
       <c r="E25">
-        <v>1.010408644364244</v>
+        <v>0.9844391251341514</v>
       </c>
       <c r="F25">
-        <v>1.033607708270236</v>
+        <v>0.9456673134408321</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053223999362709</v>
+        <v>1.036263959158265</v>
       </c>
       <c r="J25">
-        <v>1.031782657448635</v>
+        <v>0.9993518604622639</v>
       </c>
       <c r="K25">
-        <v>1.042240391765318</v>
+        <v>1.010809237973111</v>
       </c>
       <c r="L25">
-        <v>1.022847500110369</v>
+        <v>0.9972839042688817</v>
       </c>
       <c r="M25">
-        <v>1.045705784312945</v>
+        <v>0.9591720105822925</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.981219185531403</v>
+        <v>1.016550561112255</v>
       </c>
       <c r="D2">
-        <v>1.00339773120742</v>
+        <v>1.021986328851226</v>
       </c>
       <c r="E2">
-        <v>0.9902698399844028</v>
+        <v>1.018063608546924</v>
       </c>
       <c r="F2">
-        <v>0.957048757312301</v>
+        <v>1.014897203243716</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038241170009569</v>
+        <v>1.026413501647625</v>
       </c>
       <c r="J2">
-        <v>1.00397651460739</v>
+        <v>1.021769729978367</v>
       </c>
       <c r="K2">
-        <v>1.014809932330033</v>
+        <v>1.024822041565477</v>
       </c>
       <c r="L2">
-        <v>1.001866416718737</v>
+        <v>1.020910937478898</v>
       </c>
       <c r="M2">
-        <v>0.9691407761885011</v>
+        <v>1.017753980080026</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9863286145925536</v>
+        <v>1.017581810294131</v>
       </c>
       <c r="D3">
-        <v>1.007045215774489</v>
+        <v>1.022721097083471</v>
       </c>
       <c r="E3">
-        <v>0.9943621624685889</v>
+        <v>1.018939505950437</v>
       </c>
       <c r="F3">
-        <v>0.9649698911699085</v>
+        <v>1.016572484601029</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039588054810882</v>
+        <v>1.026583088349896</v>
       </c>
       <c r="J3">
-        <v>1.007199043169476</v>
+        <v>1.022436049147345</v>
       </c>
       <c r="K3">
-        <v>1.017588738465096</v>
+        <v>1.025363576045221</v>
       </c>
       <c r="L3">
-        <v>1.00506769238984</v>
+        <v>1.021592371068638</v>
       </c>
       <c r="M3">
-        <v>0.9760715179736811</v>
+        <v>1.019231893363679</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9895509374847767</v>
+        <v>1.018248518103569</v>
       </c>
       <c r="D4">
-        <v>1.009345041991923</v>
+        <v>1.023195576963124</v>
       </c>
       <c r="E4">
-        <v>0.9969493466652879</v>
+        <v>1.019506175193396</v>
       </c>
       <c r="F4">
-        <v>0.9699511694690508</v>
+        <v>1.017655727435359</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040420420289405</v>
+        <v>1.026690586933809</v>
       </c>
       <c r="J4">
-        <v>1.009225761458618</v>
+        <v>1.022866089926425</v>
       </c>
       <c r="K4">
-        <v>1.019331973962846</v>
+        <v>1.025712359924329</v>
       </c>
       <c r="L4">
-        <v>1.007084730366979</v>
+        <v>1.022032579390868</v>
       </c>
       <c r="M4">
-        <v>0.9804263166729625</v>
+        <v>1.020186985609237</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9908864198304774</v>
+        <v>1.018528664674083</v>
       </c>
       <c r="D5">
-        <v>1.010297995180265</v>
+        <v>1.023394817455326</v>
       </c>
       <c r="E5">
-        <v>0.9980230609125629</v>
+        <v>1.019744380668359</v>
       </c>
       <c r="F5">
-        <v>0.9720127117232037</v>
+        <v>1.018110944650347</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040761231243413</v>
+        <v>1.026735244049268</v>
       </c>
       <c r="J5">
-        <v>1.010064363507497</v>
+        <v>1.02304661355439</v>
       </c>
       <c r="K5">
-        <v>1.020052177536032</v>
+        <v>1.02585859983071</v>
       </c>
       <c r="L5">
-        <v>1.007920203713482</v>
+        <v>1.022217470038581</v>
       </c>
       <c r="M5">
-        <v>0.9822276617746248</v>
+        <v>1.02058822186776</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9911095529126832</v>
+        <v>1.018575694496977</v>
       </c>
       <c r="D6">
-        <v>1.010457200814237</v>
+        <v>1.023428257273347</v>
       </c>
       <c r="E6">
-        <v>0.9982025422464802</v>
+        <v>1.019784375122504</v>
       </c>
       <c r="F6">
-        <v>0.9723569963018939</v>
+        <v>1.018187367406278</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040817927552874</v>
+        <v>1.026742710781484</v>
       </c>
       <c r="J6">
-        <v>1.010204396688544</v>
+        <v>1.023076908717872</v>
       </c>
       <c r="K6">
-        <v>1.020172374130133</v>
+        <v>1.025883131359133</v>
       </c>
       <c r="L6">
-        <v>1.008059765816375</v>
+        <v>1.022248503867773</v>
       </c>
       <c r="M6">
-        <v>0.9825284369935656</v>
+        <v>1.020655574710817</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9895688565131957</v>
+        <v>1.018252261974015</v>
       </c>
       <c r="D7">
-        <v>1.009357829289343</v>
+        <v>1.023198240131457</v>
       </c>
       <c r="E7">
-        <v>0.996963747661343</v>
+        <v>1.019509358193606</v>
       </c>
       <c r="F7">
-        <v>0.9699788414941598</v>
+        <v>1.017661810760183</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0404250097099</v>
+        <v>1.026691185747903</v>
       </c>
       <c r="J7">
-        <v>1.009237018950011</v>
+        <v>1.022868503134358</v>
       </c>
       <c r="K7">
-        <v>1.019341646469462</v>
+        <v>1.025714315516745</v>
       </c>
       <c r="L7">
-        <v>1.007095942398035</v>
+        <v>1.022035050587564</v>
       </c>
       <c r="M7">
-        <v>0.9804504997894717</v>
+        <v>1.020192348057463</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9829638488205467</v>
+        <v>1.01689919735698</v>
       </c>
       <c r="D8">
-        <v>1.004643254198636</v>
+        <v>1.022234846890111</v>
       </c>
       <c r="E8">
-        <v>0.991665842187341</v>
+        <v>1.018359642114088</v>
       </c>
       <c r="F8">
-        <v>0.9597568245885811</v>
+        <v>1.01546353782478</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038704626424803</v>
+        <v>1.026471277031194</v>
       </c>
       <c r="J8">
-        <v>1.005078045917792</v>
+        <v>1.021995146432122</v>
       </c>
       <c r="K8">
-        <v>1.015760694865855</v>
+        <v>1.025005392316029</v>
       </c>
       <c r="L8">
-        <v>1.002959901071466</v>
+        <v>1.021141381575772</v>
       </c>
       <c r="M8">
-        <v>0.9715109929842173</v>
+        <v>1.018253703718146</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9706397828340947</v>
+        <v>1.014510427548025</v>
       </c>
       <c r="D9">
-        <v>0.9958464683967071</v>
+        <v>1.020529837655088</v>
       </c>
       <c r="E9">
-        <v>0.9818339935259366</v>
+        <v>1.016332946642559</v>
       </c>
       <c r="F9">
-        <v>0.9405432135264162</v>
+        <v>1.011583606740155</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035360451760741</v>
+        <v>1.026066654959197</v>
       </c>
       <c r="J9">
-        <v>0.9972736975228468</v>
+        <v>1.020447626157982</v>
       </c>
       <c r="K9">
-        <v>1.00900729513447</v>
+        <v>1.023743720950689</v>
       </c>
       <c r="L9">
-        <v>0.9952288419219846</v>
+        <v>1.019561044510838</v>
       </c>
       <c r="M9">
-        <v>0.9546806909743604</v>
+        <v>1.01482794673804</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9618964237483744</v>
+        <v>1.012914803510839</v>
       </c>
       <c r="D10">
-        <v>0.98961158003859</v>
+        <v>1.019388191088697</v>
       </c>
       <c r="E10">
-        <v>0.9748989054790622</v>
+        <v>1.014981278848573</v>
       </c>
       <c r="F10">
-        <v>0.9267746904126742</v>
+        <v>1.008992265923486</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03290111928162</v>
+        <v>1.025785404709109</v>
       </c>
       <c r="J10">
-        <v>0.9917078611684931</v>
+        <v>1.019410141885455</v>
       </c>
       <c r="K10">
-        <v>1.004170968489327</v>
+        <v>1.022894210906287</v>
       </c>
       <c r="L10">
-        <v>0.9897366559942298</v>
+        <v>1.018503694968282</v>
       </c>
       <c r="M10">
-        <v>0.9426051220879255</v>
+        <v>1.012537219019072</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9579684183624044</v>
+        <v>1.012223122311614</v>
       </c>
       <c r="D11">
-        <v>0.9868134011031707</v>
+        <v>1.018892662936091</v>
       </c>
       <c r="E11">
-        <v>0.9717937591061618</v>
+        <v>1.014395855592136</v>
       </c>
       <c r="F11">
-        <v>0.9205453669659153</v>
+        <v>1.007868957908892</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031776647167159</v>
+        <v>1.02566089234476</v>
       </c>
       <c r="J11">
-        <v>0.9892006815919099</v>
+        <v>1.018959510379517</v>
       </c>
       <c r="K11">
-        <v>1.00198835687805</v>
+        <v>1.022524366814073</v>
       </c>
       <c r="L11">
-        <v>0.9872679553184798</v>
+        <v>1.018044941543705</v>
       </c>
       <c r="M11">
-        <v>0.9371391729891921</v>
+        <v>1.011543579727029</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9564864047466487</v>
+        <v>1.011966084223143</v>
       </c>
       <c r="D12">
-        <v>0.9857582293938045</v>
+        <v>1.018708422897209</v>
       </c>
       <c r="E12">
-        <v>0.9706238668712281</v>
+        <v>1.014178381103008</v>
       </c>
       <c r="F12">
-        <v>0.9181874021121942</v>
+        <v>1.007451515464157</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031349533925137</v>
+        <v>1.025614232806781</v>
       </c>
       <c r="J12">
-        <v>0.9882537439188479</v>
+        <v>1.018791915140923</v>
       </c>
       <c r="K12">
-        <v>1.001163461928836</v>
+        <v>1.022386689078703</v>
       </c>
       <c r="L12">
-        <v>0.9863363701919039</v>
+        <v>1.017874401788302</v>
       </c>
       <c r="M12">
-        <v>0.9350698751394242</v>
+        <v>1.01117422833268</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9568053696704983</v>
+        <v>1.012021225085965</v>
       </c>
       <c r="D13">
-        <v>0.9859852999683772</v>
+        <v>1.018747951109401</v>
       </c>
       <c r="E13">
-        <v>0.9708755793100738</v>
+        <v>1.014225031139014</v>
       </c>
       <c r="F13">
-        <v>0.9186952588608314</v>
+        <v>1.00754106730044</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031441586469349</v>
+        <v>1.025624259995436</v>
       </c>
       <c r="J13">
-        <v>0.9884575923422847</v>
+        <v>1.018827874439656</v>
       </c>
       <c r="K13">
-        <v>1.001341061517973</v>
+        <v>1.022416235058812</v>
       </c>
       <c r="L13">
-        <v>0.9865368762579635</v>
+        <v>1.017910989419304</v>
       </c>
       <c r="M13">
-        <v>0.9355155704369047</v>
+        <v>1.011253467789855</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9578463934705761</v>
+        <v>1.012201877858661</v>
       </c>
       <c r="D14">
-        <v>0.98672650893229</v>
+        <v>1.018877437247197</v>
       </c>
       <c r="E14">
-        <v>0.9716973991799196</v>
+        <v>1.014377879541495</v>
       </c>
       <c r="F14">
-        <v>0.9203513814388039</v>
+        <v>1.007834456036226</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031741537307171</v>
+        <v>1.02565704381925</v>
       </c>
       <c r="J14">
-        <v>0.9891227334753616</v>
+        <v>1.018945661208704</v>
       </c>
       <c r="K14">
-        <v>1.001920465470626</v>
+        <v>1.022512992476882</v>
       </c>
       <c r="L14">
-        <v>0.987191254190854</v>
+        <v>1.018030847501463</v>
       </c>
       <c r="M14">
-        <v>0.9369689408719306</v>
+        <v>1.011513054571563</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9584847059601083</v>
+        <v>1.012313168447659</v>
       </c>
       <c r="D15">
-        <v>0.9871810658748804</v>
+        <v>1.018957194222939</v>
       </c>
       <c r="E15">
-        <v>0.9722015263162447</v>
+        <v>1.014472051515566</v>
       </c>
       <c r="F15">
-        <v>0.9213658007704681</v>
+        <v>1.008015196284749</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031925081359348</v>
+        <v>1.025677188670053</v>
       </c>
       <c r="J15">
-        <v>0.9895304398912376</v>
+        <v>1.019018205577275</v>
       </c>
       <c r="K15">
-        <v>1.00227554871255</v>
+        <v>1.02257256798903</v>
       </c>
       <c r="L15">
-        <v>0.9875924717273895</v>
+        <v>1.01810467766512</v>
       </c>
       <c r="M15">
-        <v>0.9378591339691718</v>
+        <v>1.011672958593665</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9621539838660996</v>
+        <v>1.01296069182564</v>
       </c>
       <c r="D16">
-        <v>0.9897951279384184</v>
+        <v>1.019421052605098</v>
       </c>
       <c r="E16">
-        <v>0.97510273532348</v>
+        <v>1.015020128393121</v>
       </c>
       <c r="F16">
-        <v>0.927182150842784</v>
+        <v>1.009066789236184</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032974451610629</v>
+        <v>1.025793610678253</v>
       </c>
       <c r="J16">
-        <v>0.9918721195975587</v>
+        <v>1.019440019342677</v>
       </c>
       <c r="K16">
-        <v>1.004313884178349</v>
+        <v>1.02291871403885</v>
       </c>
       <c r="L16">
-        <v>0.9898985052715564</v>
+        <v>1.018534121580468</v>
       </c>
       <c r="M16">
-        <v>0.9429626046942537</v>
+        <v>1.012603126243848</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9644164898374051</v>
+        <v>1.013366659868046</v>
       </c>
       <c r="D17">
-        <v>0.9914078240225681</v>
+        <v>1.01971170047723</v>
       </c>
       <c r="E17">
-        <v>0.9768944516286038</v>
+        <v>1.015363883867823</v>
       </c>
       <c r="F17">
-        <v>0.9307563669027322</v>
+        <v>1.009726086960964</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033616420394139</v>
+        <v>1.025865908406139</v>
       </c>
       <c r="J17">
-        <v>0.9933142716000373</v>
+        <v>1.019704237923731</v>
       </c>
       <c r="K17">
-        <v>1.005568201295615</v>
+        <v>1.023135306266721</v>
       </c>
       <c r="L17">
-        <v>0.9913201077290678</v>
+        <v>1.018803254990652</v>
       </c>
       <c r="M17">
-        <v>0.9460981384749947</v>
+        <v>1.013186124434973</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9657225825287733</v>
+        <v>1.013603380432992</v>
       </c>
       <c r="D18">
-        <v>0.9923390592915822</v>
+        <v>1.019881115900841</v>
       </c>
       <c r="E18">
-        <v>0.9779297516561214</v>
+        <v>1.015564376962499</v>
       </c>
       <c r="F18">
-        <v>0.9328156318980912</v>
+        <v>1.010110525139184</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03398515824819</v>
+        <v>1.025907815130884</v>
       </c>
       <c r="J18">
-        <v>0.9941461603184263</v>
+        <v>1.0198582177374</v>
       </c>
       <c r="K18">
-        <v>1.006291353954827</v>
+        <v>1.023261447858933</v>
       </c>
       <c r="L18">
-        <v>0.9921406406769989</v>
+        <v>1.018960147826329</v>
       </c>
       <c r="M18">
-        <v>0.9479044105147425</v>
+        <v>1.013526010181404</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9661656682232174</v>
+        <v>1.013684083579493</v>
       </c>
       <c r="D19">
-        <v>0.9926550172114202</v>
+        <v>1.019938862761267</v>
       </c>
       <c r="E19">
-        <v>0.9782811365662196</v>
+        <v>1.015632737635366</v>
       </c>
       <c r="F19">
-        <v>0.9335135715198163</v>
+        <v>1.010241588719281</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034109933408725</v>
+        <v>1.025922059579877</v>
       </c>
       <c r="J19">
-        <v>0.9944282668756868</v>
+        <v>1.019910698111419</v>
       </c>
       <c r="K19">
-        <v>1.006536519151761</v>
+        <v>1.023304426165083</v>
       </c>
       <c r="L19">
-        <v>0.9924189801630496</v>
+        <v>1.019013629309441</v>
       </c>
       <c r="M19">
-        <v>0.9485165592965157</v>
+        <v>1.013641874319767</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9641751611418689</v>
+        <v>1.013323110979638</v>
       </c>
       <c r="D20">
-        <v>0.9912357786570103</v>
+        <v>1.019680528564485</v>
       </c>
       <c r="E20">
-        <v>0.9767032366810817</v>
+        <v>1.015327003578375</v>
       </c>
       <c r="F20">
-        <v>0.9303755532448585</v>
+        <v>1.009655362937209</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033548137342338</v>
+        <v>1.025858178781135</v>
       </c>
       <c r="J20">
-        <v>0.9931605109983069</v>
+        <v>1.019675903683071</v>
       </c>
       <c r="K20">
-        <v>1.00543450705799</v>
+        <v>1.023112087937274</v>
       </c>
       <c r="L20">
-        <v>0.9911684862138205</v>
+        <v>1.018774388646132</v>
       </c>
       <c r="M20">
-        <v>0.9457640892668289</v>
+        <v>1.013123591605938</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9575404862169259</v>
+        <v>1.012148683361902</v>
       </c>
       <c r="D21">
-        <v>0.9865086863312519</v>
+        <v>1.018839311746499</v>
       </c>
       <c r="E21">
-        <v>0.9714558591115576</v>
+        <v>1.014332870117191</v>
       </c>
       <c r="F21">
-        <v>0.9198649466785971</v>
+        <v>1.007748065848509</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031653473861285</v>
+        <v>1.025647401121766</v>
       </c>
       <c r="J21">
-        <v>0.9889273074419189</v>
+        <v>1.018910981765252</v>
       </c>
       <c r="K21">
-        <v>1.00175024439445</v>
+        <v>1.022484508147617</v>
       </c>
       <c r="L21">
-        <v>0.9869989677872726</v>
+        <v>1.017995556109538</v>
       </c>
       <c r="M21">
-        <v>0.9365420654298056</v>
+        <v>1.011436620240929</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9532351161219829</v>
+        <v>1.011409596840704</v>
       </c>
       <c r="D22">
-        <v>0.9834445543866706</v>
+        <v>1.018309370541171</v>
       </c>
       <c r="E22">
-        <v>0.9680604811316966</v>
+        <v>1.013707689919243</v>
       </c>
       <c r="F22">
-        <v>0.9129989143623749</v>
+        <v>1.006547734695103</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030407358681564</v>
+        <v>1.025512504069873</v>
       </c>
       <c r="J22">
-        <v>0.9861745023187498</v>
+        <v>1.01842882572756</v>
       </c>
       <c r="K22">
-        <v>0.9993512701017183</v>
+        <v>1.022088181023993</v>
       </c>
       <c r="L22">
-        <v>0.984292377406584</v>
+        <v>1.017505072481073</v>
       </c>
       <c r="M22">
-        <v>0.9305161547868053</v>
+        <v>1.010374390907017</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9555307590531119</v>
+        <v>1.011801465424231</v>
       </c>
       <c r="D23">
-        <v>0.985078000321663</v>
+        <v>1.018590400624173</v>
       </c>
       <c r="E23">
-        <v>0.9698699657391489</v>
+        <v>1.014039122296057</v>
       </c>
       <c r="F23">
-        <v>0.9166646012891502</v>
+        <v>1.007184163984253</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031073325143771</v>
+        <v>1.025584240490401</v>
       </c>
       <c r="J23">
-        <v>0.9876428520729357</v>
+        <v>1.018684541746185</v>
       </c>
       <c r="K23">
-        <v>1.000631158018872</v>
+        <v>1.022298446934099</v>
       </c>
       <c r="L23">
-        <v>0.9857356167544042</v>
+        <v>1.017765163360634</v>
       </c>
       <c r="M23">
-        <v>0.9337334300181107</v>
+        <v>1.010937649743917</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9642842490643397</v>
+        <v>1.013342789075603</v>
       </c>
       <c r="D24">
-        <v>0.9913135475975361</v>
+        <v>1.019694614164196</v>
       </c>
       <c r="E24">
-        <v>0.9767896686170027</v>
+        <v>1.01534366823599</v>
       </c>
       <c r="F24">
-        <v>0.9305477051020499</v>
+        <v>1.009687320446261</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033579009129134</v>
+        <v>1.025861672279629</v>
       </c>
       <c r="J24">
-        <v>0.9932300174387069</v>
+        <v>1.019688707122139</v>
       </c>
       <c r="K24">
-        <v>1.005494943836386</v>
+        <v>1.023122579897316</v>
       </c>
       <c r="L24">
-        <v>0.9912370241501431</v>
+        <v>1.018787432377043</v>
       </c>
       <c r="M24">
-        <v>0.9459151014143484</v>
+        <v>1.01315184801574</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9739135200438036</v>
+        <v>1.015128523637385</v>
       </c>
       <c r="D25">
-        <v>0.9981826442341504</v>
+        <v>1.020971499469631</v>
       </c>
       <c r="E25">
-        <v>0.9844391251341514</v>
+        <v>1.016856988172088</v>
       </c>
       <c r="F25">
-        <v>0.9456673134408321</v>
+        <v>1.012587457853684</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036263959158265</v>
+        <v>1.026173287107494</v>
       </c>
       <c r="J25">
-        <v>0.9993518604622639</v>
+        <v>1.020848716315921</v>
       </c>
       <c r="K25">
-        <v>1.010809237973111</v>
+        <v>1.024071371538843</v>
       </c>
       <c r="L25">
-        <v>0.9972839042688817</v>
+        <v>1.019970264721034</v>
       </c>
       <c r="M25">
-        <v>0.9591720105822925</v>
+        <v>1.015714770205687</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_bus/vm_pu.xlsx
@@ -418,37 +418,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.016550561112255</v>
+        <v>0.9812191855314029</v>
       </c>
       <c r="D2">
-        <v>1.021986328851226</v>
+        <v>1.00339773120742</v>
       </c>
       <c r="E2">
-        <v>1.018063608546924</v>
+        <v>0.9902698399844027</v>
       </c>
       <c r="F2">
-        <v>1.014897203243716</v>
+        <v>0.9570487573123011</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.026413501647625</v>
+        <v>1.038241170009569</v>
       </c>
       <c r="J2">
-        <v>1.021769729978367</v>
+        <v>1.00397651460739</v>
       </c>
       <c r="K2">
-        <v>1.024822041565477</v>
+        <v>1.014809932330033</v>
       </c>
       <c r="L2">
-        <v>1.020910937478898</v>
+        <v>1.001866416718737</v>
       </c>
       <c r="M2">
-        <v>1.017753980080026</v>
+        <v>0.9691407761885015</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -456,37 +456,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.017581810294131</v>
+        <v>0.9863286145925532</v>
       </c>
       <c r="D3">
-        <v>1.022721097083471</v>
+        <v>1.007045215774488</v>
       </c>
       <c r="E3">
-        <v>1.018939505950437</v>
+        <v>0.9943621624685887</v>
       </c>
       <c r="F3">
-        <v>1.016572484601029</v>
+        <v>0.9649698911699085</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.026583088349896</v>
+        <v>1.039588054810881</v>
       </c>
       <c r="J3">
-        <v>1.022436049147345</v>
+        <v>1.007199043169475</v>
       </c>
       <c r="K3">
-        <v>1.025363576045221</v>
+        <v>1.017588738465095</v>
       </c>
       <c r="L3">
-        <v>1.021592371068638</v>
+        <v>1.00506769238984</v>
       </c>
       <c r="M3">
-        <v>1.019231893363679</v>
+        <v>0.9760715179736811</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -494,37 +494,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.018248518103569</v>
+        <v>0.9895509374847765</v>
       </c>
       <c r="D4">
-        <v>1.023195576963124</v>
+        <v>1.009345041991923</v>
       </c>
       <c r="E4">
-        <v>1.019506175193396</v>
+        <v>0.9969493466652877</v>
       </c>
       <c r="F4">
-        <v>1.017655727435359</v>
+        <v>0.9699511694690505</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.026690586933809</v>
+        <v>1.040420420289405</v>
       </c>
       <c r="J4">
-        <v>1.022866089926425</v>
+        <v>1.009225761458618</v>
       </c>
       <c r="K4">
-        <v>1.025712359924329</v>
+        <v>1.019331973962846</v>
       </c>
       <c r="L4">
-        <v>1.022032579390868</v>
+        <v>1.007084730366979</v>
       </c>
       <c r="M4">
-        <v>1.020186985609237</v>
+        <v>0.9804263166729622</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -532,37 +532,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018528664674083</v>
+        <v>0.9908864198304763</v>
       </c>
       <c r="D5">
-        <v>1.023394817455326</v>
+        <v>1.010297995180264</v>
       </c>
       <c r="E5">
-        <v>1.019744380668359</v>
+        <v>0.9980230609125619</v>
       </c>
       <c r="F5">
-        <v>1.018110944650347</v>
+        <v>0.9720127117232022</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.026735244049268</v>
+        <v>1.040761231243412</v>
       </c>
       <c r="J5">
-        <v>1.02304661355439</v>
+        <v>1.010064363507496</v>
       </c>
       <c r="K5">
-        <v>1.02585859983071</v>
+        <v>1.020052177536031</v>
       </c>
       <c r="L5">
-        <v>1.022217470038581</v>
+        <v>1.00792020371348</v>
       </c>
       <c r="M5">
-        <v>1.02058822186776</v>
+        <v>0.9822276617746237</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -570,37 +570,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018575694496977</v>
+        <v>0.991109552912683</v>
       </c>
       <c r="D6">
-        <v>1.023428257273347</v>
+        <v>1.010457200814237</v>
       </c>
       <c r="E6">
-        <v>1.019784375122504</v>
+        <v>0.9982025422464795</v>
       </c>
       <c r="F6">
-        <v>1.018187367406278</v>
+        <v>0.9723569963018927</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.026742710781484</v>
+        <v>1.040817927552874</v>
       </c>
       <c r="J6">
-        <v>1.023076908717872</v>
+        <v>1.010204396688543</v>
       </c>
       <c r="K6">
-        <v>1.025883131359133</v>
+        <v>1.020172374130132</v>
       </c>
       <c r="L6">
-        <v>1.022248503867773</v>
+        <v>1.008059765816375</v>
       </c>
       <c r="M6">
-        <v>1.020655574710817</v>
+        <v>0.9825284369935645</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -608,37 +608,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.018252261974015</v>
+        <v>0.9895688565131958</v>
       </c>
       <c r="D7">
-        <v>1.023198240131457</v>
+        <v>1.009357829289343</v>
       </c>
       <c r="E7">
-        <v>1.019509358193606</v>
+        <v>0.9969637476613433</v>
       </c>
       <c r="F7">
-        <v>1.017661810760183</v>
+        <v>0.9699788414941597</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.026691185747903</v>
+        <v>1.0404250097099</v>
       </c>
       <c r="J7">
-        <v>1.022868503134358</v>
+        <v>1.009237018950012</v>
       </c>
       <c r="K7">
-        <v>1.025714315516745</v>
+        <v>1.019341646469462</v>
       </c>
       <c r="L7">
-        <v>1.022035050587564</v>
+        <v>1.007095942398035</v>
       </c>
       <c r="M7">
-        <v>1.020192348057463</v>
+        <v>0.9804504997894713</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -646,37 +646,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.01689919735698</v>
+        <v>0.9829638488205478</v>
       </c>
       <c r="D8">
-        <v>1.022234846890111</v>
+        <v>1.004643254198637</v>
       </c>
       <c r="E8">
-        <v>1.018359642114088</v>
+        <v>0.991665842187342</v>
       </c>
       <c r="F8">
-        <v>1.01546353782478</v>
+        <v>0.9597568245885827</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026471277031194</v>
+        <v>1.038704626424803</v>
       </c>
       <c r="J8">
-        <v>1.021995146432122</v>
+        <v>1.005078045917794</v>
       </c>
       <c r="K8">
-        <v>1.025005392316029</v>
+        <v>1.015760694865856</v>
       </c>
       <c r="L8">
-        <v>1.021141381575772</v>
+        <v>1.002959901071467</v>
       </c>
       <c r="M8">
-        <v>1.018253703718146</v>
+        <v>0.9715109929842188</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +684,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.014510427548025</v>
+        <v>0.9706397828340945</v>
       </c>
       <c r="D9">
-        <v>1.020529837655088</v>
+        <v>0.995846468396707</v>
       </c>
       <c r="E9">
-        <v>1.016332946642559</v>
+        <v>0.9818339935259361</v>
       </c>
       <c r="F9">
-        <v>1.011583606740155</v>
+        <v>0.9405432135264161</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.026066654959197</v>
+        <v>1.035360451760741</v>
       </c>
       <c r="J9">
-        <v>1.020447626157982</v>
+        <v>0.9972736975228464</v>
       </c>
       <c r="K9">
-        <v>1.023743720950689</v>
+        <v>1.00900729513447</v>
       </c>
       <c r="L9">
-        <v>1.019561044510838</v>
+        <v>0.9952288419219841</v>
       </c>
       <c r="M9">
-        <v>1.01482794673804</v>
+        <v>0.9546806909743601</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -722,37 +722,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.012914803510839</v>
+        <v>0.9618964237483737</v>
       </c>
       <c r="D10">
-        <v>1.019388191088697</v>
+        <v>0.9896115800385895</v>
       </c>
       <c r="E10">
-        <v>1.014981278848573</v>
+        <v>0.9748989054790618</v>
       </c>
       <c r="F10">
-        <v>1.008992265923486</v>
+        <v>0.9267746904126738</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025785404709109</v>
+        <v>1.03290111928162</v>
       </c>
       <c r="J10">
-        <v>1.019410141885455</v>
+        <v>0.9917078611684926</v>
       </c>
       <c r="K10">
-        <v>1.022894210906287</v>
+        <v>1.004170968489327</v>
       </c>
       <c r="L10">
-        <v>1.018503694968282</v>
+        <v>0.9897366559942293</v>
       </c>
       <c r="M10">
-        <v>1.012537219019072</v>
+        <v>0.9426051220879248</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -760,37 +760,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.012223122311614</v>
+        <v>0.9579684183624037</v>
       </c>
       <c r="D11">
-        <v>1.018892662936091</v>
+        <v>0.9868134011031702</v>
       </c>
       <c r="E11">
-        <v>1.014395855592136</v>
+        <v>0.9717937591061612</v>
       </c>
       <c r="F11">
-        <v>1.007868957908892</v>
+        <v>0.9205453669659144</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02566089234476</v>
+        <v>1.031776647167159</v>
       </c>
       <c r="J11">
-        <v>1.018959510379517</v>
+        <v>0.9892006815919092</v>
       </c>
       <c r="K11">
-        <v>1.022524366814073</v>
+        <v>1.001988356878049</v>
       </c>
       <c r="L11">
-        <v>1.018044941543705</v>
+        <v>0.9872679553184792</v>
       </c>
       <c r="M11">
-        <v>1.011543579727029</v>
+        <v>0.9371391729891914</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -798,37 +798,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.011966084223143</v>
+        <v>0.9564864047466487</v>
       </c>
       <c r="D12">
-        <v>1.018708422897209</v>
+        <v>0.9857582293938048</v>
       </c>
       <c r="E12">
-        <v>1.014178381103008</v>
+        <v>0.9706238668712286</v>
       </c>
       <c r="F12">
-        <v>1.007451515464157</v>
+        <v>0.9181874021121943</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.025614232806781</v>
+        <v>1.031349533925137</v>
       </c>
       <c r="J12">
-        <v>1.018791915140923</v>
+        <v>0.988253743918848</v>
       </c>
       <c r="K12">
-        <v>1.022386689078703</v>
+        <v>1.001163461928837</v>
       </c>
       <c r="L12">
-        <v>1.017874401788302</v>
+        <v>0.9863363701919041</v>
       </c>
       <c r="M12">
-        <v>1.01117422833268</v>
+        <v>0.9350698751394243</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -836,37 +836,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.012021225085965</v>
+        <v>0.9568053696704985</v>
       </c>
       <c r="D13">
-        <v>1.018747951109401</v>
+        <v>0.9859852999683772</v>
       </c>
       <c r="E13">
-        <v>1.014225031139014</v>
+        <v>0.9708755793100736</v>
       </c>
       <c r="F13">
-        <v>1.00754106730044</v>
+        <v>0.9186952588608319</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025624259995436</v>
+        <v>1.031441586469349</v>
       </c>
       <c r="J13">
-        <v>1.018827874439656</v>
+        <v>0.9884575923422848</v>
       </c>
       <c r="K13">
-        <v>1.022416235058812</v>
+        <v>1.001341061517973</v>
       </c>
       <c r="L13">
-        <v>1.017910989419304</v>
+        <v>0.9865368762579633</v>
       </c>
       <c r="M13">
-        <v>1.011253467789855</v>
+        <v>0.935515570436905</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,37 +874,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.012201877858661</v>
+        <v>0.957846393470575</v>
       </c>
       <c r="D14">
-        <v>1.018877437247197</v>
+        <v>0.9867265089322892</v>
       </c>
       <c r="E14">
-        <v>1.014377879541495</v>
+        <v>0.9716973991799184</v>
       </c>
       <c r="F14">
-        <v>1.007834456036226</v>
+        <v>0.9203513814388032</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.02565704381925</v>
+        <v>1.03174153730717</v>
       </c>
       <c r="J14">
-        <v>1.018945661208704</v>
+        <v>0.9891227334753607</v>
       </c>
       <c r="K14">
-        <v>1.022512992476882</v>
+        <v>1.001920465470626</v>
       </c>
       <c r="L14">
-        <v>1.018030847501463</v>
+        <v>0.9871912541908529</v>
       </c>
       <c r="M14">
-        <v>1.011513054571563</v>
+        <v>0.9369689408719298</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -912,37 +912,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.012313168447659</v>
+        <v>0.9584847059601077</v>
       </c>
       <c r="D15">
-        <v>1.018957194222939</v>
+        <v>0.9871810658748796</v>
       </c>
       <c r="E15">
-        <v>1.014472051515566</v>
+        <v>0.9722015263162439</v>
       </c>
       <c r="F15">
-        <v>1.008015196284749</v>
+        <v>0.9213658007704676</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025677188670053</v>
+        <v>1.031925081359348</v>
       </c>
       <c r="J15">
-        <v>1.019018205577275</v>
+        <v>0.9895304398912371</v>
       </c>
       <c r="K15">
-        <v>1.02257256798903</v>
+        <v>1.00227554871255</v>
       </c>
       <c r="L15">
-        <v>1.01810467766512</v>
+        <v>0.9875924717273888</v>
       </c>
       <c r="M15">
-        <v>1.011672958593665</v>
+        <v>0.9378591339691713</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -950,37 +950,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.01296069182564</v>
+        <v>0.9621539838660995</v>
       </c>
       <c r="D16">
-        <v>1.019421052605098</v>
+        <v>0.9897951279384187</v>
       </c>
       <c r="E16">
-        <v>1.015020128393121</v>
+        <v>0.9751027353234796</v>
       </c>
       <c r="F16">
-        <v>1.009066789236184</v>
+        <v>0.9271821508427834</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025793610678253</v>
+        <v>1.032974451610629</v>
       </c>
       <c r="J16">
-        <v>1.019440019342677</v>
+        <v>0.9918721195975586</v>
       </c>
       <c r="K16">
-        <v>1.02291871403885</v>
+        <v>1.00431388417835</v>
       </c>
       <c r="L16">
-        <v>1.018534121580468</v>
+        <v>0.9898985052715559</v>
       </c>
       <c r="M16">
-        <v>1.012603126243848</v>
+        <v>0.9429626046942534</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -988,37 +988,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.013366659868046</v>
+        <v>0.964416489837406</v>
       </c>
       <c r="D17">
-        <v>1.01971170047723</v>
+        <v>0.9914078240225689</v>
       </c>
       <c r="E17">
-        <v>1.015363883867823</v>
+        <v>0.9768944516286043</v>
       </c>
       <c r="F17">
-        <v>1.009726086960964</v>
+        <v>0.9307563669027331</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025865908406139</v>
+        <v>1.03361642039414</v>
       </c>
       <c r="J17">
-        <v>1.019704237923731</v>
+        <v>0.9933142716000379</v>
       </c>
       <c r="K17">
-        <v>1.023135306266721</v>
+        <v>1.005568201295615</v>
       </c>
       <c r="L17">
-        <v>1.018803254990652</v>
+        <v>0.9913201077290683</v>
       </c>
       <c r="M17">
-        <v>1.013186124434973</v>
+        <v>0.9460981384749956</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1026,37 +1026,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.013603380432992</v>
+        <v>0.9657225825287727</v>
       </c>
       <c r="D18">
-        <v>1.019881115900841</v>
+        <v>0.9923390592915817</v>
       </c>
       <c r="E18">
-        <v>1.015564376962499</v>
+        <v>0.9779297516561209</v>
       </c>
       <c r="F18">
-        <v>1.010110525139184</v>
+        <v>0.9328156318980907</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025907815130884</v>
+        <v>1.033985158248189</v>
       </c>
       <c r="J18">
-        <v>1.0198582177374</v>
+        <v>0.994146160318426</v>
       </c>
       <c r="K18">
-        <v>1.023261447858933</v>
+        <v>1.006291353954827</v>
       </c>
       <c r="L18">
-        <v>1.018960147826329</v>
+        <v>0.9921406406769986</v>
       </c>
       <c r="M18">
-        <v>1.013526010181404</v>
+        <v>0.9479044105147418</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1064,37 +1064,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.013684083579493</v>
+        <v>0.966165668223217</v>
       </c>
       <c r="D19">
-        <v>1.019938862761267</v>
+        <v>0.9926550172114204</v>
       </c>
       <c r="E19">
-        <v>1.015632737635366</v>
+        <v>0.9782811365662195</v>
       </c>
       <c r="F19">
-        <v>1.010241588719281</v>
+        <v>0.9335135715198155</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025922059579877</v>
+        <v>1.034109933408725</v>
       </c>
       <c r="J19">
-        <v>1.019910698111419</v>
+        <v>0.9944282668756865</v>
       </c>
       <c r="K19">
-        <v>1.023304426165083</v>
+        <v>1.006536519151761</v>
       </c>
       <c r="L19">
-        <v>1.019013629309441</v>
+        <v>0.9924189801630493</v>
       </c>
       <c r="M19">
-        <v>1.013641874319767</v>
+        <v>0.9485165592965151</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1102,37 +1102,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.013323110979638</v>
+        <v>0.9641751611418695</v>
       </c>
       <c r="D20">
-        <v>1.019680528564485</v>
+        <v>0.9912357786570108</v>
       </c>
       <c r="E20">
-        <v>1.015327003578375</v>
+        <v>0.9767032366810821</v>
       </c>
       <c r="F20">
-        <v>1.009655362937209</v>
+        <v>0.9303755532448594</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025858178781135</v>
+        <v>1.033548137342338</v>
       </c>
       <c r="J20">
-        <v>1.019675903683071</v>
+        <v>0.9931605109983075</v>
       </c>
       <c r="K20">
-        <v>1.023112087937274</v>
+        <v>1.005434507057991</v>
       </c>
       <c r="L20">
-        <v>1.018774388646132</v>
+        <v>0.9911684862138208</v>
       </c>
       <c r="M20">
-        <v>1.013123591605938</v>
+        <v>0.9457640892668296</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1140,37 +1140,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.012148683361902</v>
+        <v>0.9575404862169263</v>
       </c>
       <c r="D21">
-        <v>1.018839311746499</v>
+        <v>0.9865086863312524</v>
       </c>
       <c r="E21">
-        <v>1.014332870117191</v>
+        <v>0.9714558591115577</v>
       </c>
       <c r="F21">
-        <v>1.007748065848509</v>
+        <v>0.9198649466785974</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025647401121766</v>
+        <v>1.031653473861286</v>
       </c>
       <c r="J21">
-        <v>1.018910981765252</v>
+        <v>0.9889273074419193</v>
       </c>
       <c r="K21">
-        <v>1.022484508147617</v>
+        <v>1.00175024439445</v>
       </c>
       <c r="L21">
-        <v>1.017995556109538</v>
+        <v>0.9869989677872727</v>
       </c>
       <c r="M21">
-        <v>1.011436620240929</v>
+        <v>0.9365420654298059</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1178,37 +1178,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.011409596840704</v>
+        <v>0.9532351161219835</v>
       </c>
       <c r="D22">
-        <v>1.018309370541171</v>
+        <v>0.9834445543866714</v>
       </c>
       <c r="E22">
-        <v>1.013707689919243</v>
+        <v>0.9680604811316973</v>
       </c>
       <c r="F22">
-        <v>1.006547734695103</v>
+        <v>0.9129989143623753</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025512504069873</v>
+        <v>1.030407358681565</v>
       </c>
       <c r="J22">
-        <v>1.01842882572756</v>
+        <v>0.9861745023187507</v>
       </c>
       <c r="K22">
-        <v>1.022088181023993</v>
+        <v>0.9993512701017193</v>
       </c>
       <c r="L22">
-        <v>1.017505072481073</v>
+        <v>0.9842923774065846</v>
       </c>
       <c r="M22">
-        <v>1.010374390907017</v>
+        <v>0.9305161547868057</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1216,37 +1216,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011801465424231</v>
+        <v>0.9555307590531124</v>
       </c>
       <c r="D23">
-        <v>1.018590400624173</v>
+        <v>0.9850780003216639</v>
       </c>
       <c r="E23">
-        <v>1.014039122296057</v>
+        <v>0.9698699657391494</v>
       </c>
       <c r="F23">
-        <v>1.007184163984253</v>
+        <v>0.9166646012891506</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025584240490401</v>
+        <v>1.031073325143772</v>
       </c>
       <c r="J23">
-        <v>1.018684541746185</v>
+        <v>0.9876428520729363</v>
       </c>
       <c r="K23">
-        <v>1.022298446934099</v>
+        <v>1.000631158018873</v>
       </c>
       <c r="L23">
-        <v>1.017765163360634</v>
+        <v>0.9857356167544046</v>
       </c>
       <c r="M23">
-        <v>1.010937649743917</v>
+        <v>0.9337334300181113</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1254,37 +1254,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.013342789075603</v>
+        <v>0.9642842490643396</v>
       </c>
       <c r="D24">
-        <v>1.019694614164196</v>
+        <v>0.9913135475975361</v>
       </c>
       <c r="E24">
-        <v>1.01534366823599</v>
+        <v>0.9767896686170022</v>
       </c>
       <c r="F24">
-        <v>1.009687320446261</v>
+        <v>0.9305477051020499</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.025861672279629</v>
+        <v>1.033579009129134</v>
       </c>
       <c r="J24">
-        <v>1.019688707122139</v>
+        <v>0.9932300174387069</v>
       </c>
       <c r="K24">
-        <v>1.023122579897316</v>
+        <v>1.005494943836386</v>
       </c>
       <c r="L24">
-        <v>1.018787432377043</v>
+        <v>0.9912370241501428</v>
       </c>
       <c r="M24">
-        <v>1.01315184801574</v>
+        <v>0.9459151014143483</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1292,37 +1292,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.015128523637385</v>
+        <v>0.9739135200438044</v>
       </c>
       <c r="D25">
-        <v>1.020971499469631</v>
+        <v>0.998182644234151</v>
       </c>
       <c r="E25">
-        <v>1.016856988172088</v>
+        <v>0.9844391251341523</v>
       </c>
       <c r="F25">
-        <v>1.012587457853684</v>
+        <v>0.9456673134408325</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.026173287107494</v>
+        <v>1.036263959158266</v>
       </c>
       <c r="J25">
-        <v>1.020848716315921</v>
+        <v>0.9993518604622647</v>
       </c>
       <c r="K25">
-        <v>1.024071371538843</v>
+        <v>1.010809237973111</v>
       </c>
       <c r="L25">
-        <v>1.019970264721034</v>
+        <v>0.9972839042688824</v>
       </c>
       <c r="M25">
-        <v>1.015714770205687</v>
+        <v>0.959172010582293</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,37 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9812191855314029</v>
+        <v>1.034407452511148</v>
       </c>
       <c r="D2">
-        <v>1.00339773120742</v>
+        <v>1.049542863798027</v>
       </c>
       <c r="E2">
-        <v>0.9902698399844027</v>
+        <v>1.035434856898912</v>
       </c>
       <c r="F2">
-        <v>0.9570487573123011</v>
+        <v>1.052574425288194</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.038241170009569</v>
+        <v>1.065104246460835</v>
       </c>
       <c r="J2">
-        <v>1.00397651460739</v>
+        <v>1.055605583679863</v>
       </c>
       <c r="K2">
-        <v>1.014809932330033</v>
+        <v>1.060352582787334</v>
       </c>
       <c r="L2">
-        <v>1.001866416718737</v>
+        <v>1.046421651366627</v>
       </c>
       <c r="M2">
-        <v>0.9691407761885015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.063346864612646</v>
+      </c>
+      <c r="N2">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.058706960405622</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.053744574073658</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,37 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9863286145925532</v>
+        <v>1.039012715376334</v>
       </c>
       <c r="D3">
-        <v>1.007045215774488</v>
+        <v>1.05273246731971</v>
       </c>
       <c r="E3">
-        <v>0.9943621624685887</v>
+        <v>1.039235095519047</v>
       </c>
       <c r="F3">
-        <v>0.9649698911699085</v>
+        <v>1.05571315211011</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.039588054810881</v>
+        <v>1.066687003346862</v>
       </c>
       <c r="J3">
-        <v>1.007199043169475</v>
+        <v>1.058493543007528</v>
       </c>
       <c r="K3">
-        <v>1.017588738465095</v>
+        <v>1.062732318292268</v>
       </c>
       <c r="L3">
-        <v>1.00506769238984</v>
+        <v>1.049389411099387</v>
       </c>
       <c r="M3">
-        <v>0.9760715179736811</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.065679547521869</v>
+      </c>
+      <c r="N3">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.060553075187957</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.055424578590082</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -497,37 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9895509374847765</v>
+        <v>1.041933854573981</v>
       </c>
       <c r="D4">
-        <v>1.009345041991923</v>
+        <v>1.05475949897535</v>
       </c>
       <c r="E4">
-        <v>0.9969493466652877</v>
+        <v>1.041649867949577</v>
       </c>
       <c r="F4">
-        <v>0.9699511694690505</v>
+        <v>1.057710895082786</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040420420289405</v>
+        <v>1.067681878292998</v>
       </c>
       <c r="J4">
-        <v>1.009225761458618</v>
+        <v>1.060322486753829</v>
       </c>
       <c r="K4">
-        <v>1.019331973962846</v>
+        <v>1.064239066499505</v>
       </c>
       <c r="L4">
-        <v>1.007084730366979</v>
+        <v>1.05127031734175</v>
       </c>
       <c r="M4">
-        <v>0.9804263166729622</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.067159334509561</v>
+      </c>
+      <c r="N4">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.061724195059529</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.056490812862785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -535,37 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9908864198304763</v>
+        <v>1.043155422773568</v>
       </c>
       <c r="D5">
-        <v>1.010297995180264</v>
+        <v>1.055610459688005</v>
       </c>
       <c r="E5">
-        <v>0.9980230609125619</v>
+        <v>1.042662597208207</v>
       </c>
       <c r="F5">
-        <v>0.9720127117232022</v>
+        <v>1.058548570550955</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040761231243412</v>
+        <v>1.068097890903972</v>
       </c>
       <c r="J5">
-        <v>1.010064363507496</v>
+        <v>1.061089086803696</v>
       </c>
       <c r="K5">
-        <v>1.020052177536031</v>
+        <v>1.064872077883901</v>
       </c>
       <c r="L5">
-        <v>1.00792020371348</v>
+        <v>1.052059615581205</v>
       </c>
       <c r="M5">
-        <v>0.9822276617746237</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.067780026069758</v>
+      </c>
+      <c r="N5">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.062215416734751</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.056945397627982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -573,37 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.991109552912683</v>
+        <v>1.043368399561885</v>
       </c>
       <c r="D6">
-        <v>1.010457200814237</v>
+        <v>1.05576179358903</v>
       </c>
       <c r="E6">
-        <v>0.9982025422464795</v>
+        <v>1.042841563050803</v>
       </c>
       <c r="F6">
-        <v>0.9723569963018927</v>
+        <v>1.05869550642793</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040817927552874</v>
+        <v>1.068172956322727</v>
       </c>
       <c r="J6">
-        <v>1.010204396688543</v>
+        <v>1.061225731403237</v>
       </c>
       <c r="K6">
-        <v>1.020172374130132</v>
+        <v>1.064986774553411</v>
       </c>
       <c r="L6">
-        <v>1.008059765816375</v>
+        <v>1.052201028430604</v>
       </c>
       <c r="M6">
-        <v>0.9825284369935645</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.067890508100149</v>
+      </c>
+      <c r="N6">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.062302853315775</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.057035043359343</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -611,37 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9895688565131958</v>
+        <v>1.041973713740947</v>
       </c>
       <c r="D7">
-        <v>1.009357829289343</v>
+        <v>1.054795121535235</v>
       </c>
       <c r="E7">
-        <v>0.9969637476613433</v>
+        <v>1.041689325543319</v>
       </c>
       <c r="F7">
-        <v>0.9699788414941597</v>
+        <v>1.057740350867598</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.0404250097099</v>
+        <v>1.067702658504737</v>
       </c>
       <c r="J7">
-        <v>1.009237018950012</v>
+        <v>1.060355712039429</v>
       </c>
       <c r="K7">
-        <v>1.019341646469462</v>
+        <v>1.064271517279638</v>
       </c>
       <c r="L7">
-        <v>1.007095942398035</v>
+        <v>1.051306502843966</v>
       </c>
       <c r="M7">
-        <v>0.9804504997894713</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.067185696181323</v>
+      </c>
+      <c r="N7">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.061745057963597</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.056533425873732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -649,37 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9829638488205478</v>
+        <v>1.036006565916658</v>
       </c>
       <c r="D8">
-        <v>1.004643254198637</v>
+        <v>1.050659539723076</v>
       </c>
       <c r="E8">
-        <v>0.991665842187342</v>
+        <v>1.036762148989965</v>
       </c>
       <c r="F8">
-        <v>0.9597568245885827</v>
+        <v>1.053665555121025</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.038704626424803</v>
+        <v>1.065664744491363</v>
       </c>
       <c r="J8">
-        <v>1.005078045917794</v>
+        <v>1.056619466002938</v>
       </c>
       <c r="K8">
-        <v>1.015760694865856</v>
+        <v>1.061194384097098</v>
       </c>
       <c r="L8">
-        <v>1.002959901071467</v>
+        <v>1.047466155388054</v>
       </c>
       <c r="M8">
-        <v>0.9715109929842188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.064164537320502</v>
+      </c>
+      <c r="N8">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.059354077439558</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.054362211732523</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -687,37 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9706397828340945</v>
+        <v>1.024979124515906</v>
       </c>
       <c r="D9">
-        <v>0.995846468396707</v>
+        <v>1.043036911801035</v>
       </c>
       <c r="E9">
-        <v>0.9818339935259361</v>
+        <v>1.027681296530542</v>
       </c>
       <c r="F9">
-        <v>0.9405432135264161</v>
+        <v>1.046188690803851</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035360451760741</v>
+        <v>1.061816342391456</v>
       </c>
       <c r="J9">
-        <v>0.9972736975228464</v>
+        <v>1.049679625782501</v>
       </c>
       <c r="K9">
-        <v>1.00900729513447</v>
+        <v>1.055468307966276</v>
       </c>
       <c r="L9">
-        <v>0.9952288419219841</v>
+        <v>1.040340679388061</v>
       </c>
       <c r="M9">
-        <v>0.9546806909743601</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.058574341396296</v>
+      </c>
+      <c r="N9">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.054929911291084</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.050310521546866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -725,37 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9618964237483737</v>
+        <v>1.017402019366692</v>
       </c>
       <c r="D10">
-        <v>0.9896115800385895</v>
+        <v>1.037857996509546</v>
       </c>
       <c r="E10">
-        <v>0.9748989054790618</v>
+        <v>1.02150530242029</v>
       </c>
       <c r="F10">
-        <v>0.9267746904126738</v>
+        <v>1.041164888609207</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03290111928162</v>
+        <v>1.059163217078503</v>
       </c>
       <c r="J10">
-        <v>0.9917078611684926</v>
+        <v>1.044941818231105</v>
       </c>
       <c r="K10">
-        <v>1.004170968489327</v>
+        <v>1.051575777102594</v>
       </c>
       <c r="L10">
-        <v>0.9897366559942293</v>
+        <v>1.035496832611836</v>
       </c>
       <c r="M10">
-        <v>0.9426051220879248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.054828653595624</v>
+      </c>
+      <c r="N10">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.052016109632192</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.047574866008098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -763,37 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9579684183624037</v>
+        <v>1.015019013310772</v>
       </c>
       <c r="D11">
-        <v>0.9868134011031702</v>
+        <v>1.036491950682912</v>
       </c>
       <c r="E11">
-        <v>0.9717937591061612</v>
+        <v>1.019859788875308</v>
       </c>
       <c r="F11">
-        <v>0.9205453669659144</v>
+        <v>1.040168697262741</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031776647167159</v>
+        <v>1.05859521856295</v>
       </c>
       <c r="J11">
-        <v>0.9892006815919092</v>
+        <v>1.043780061662705</v>
       </c>
       <c r="K11">
-        <v>1.001988356878049</v>
+        <v>1.050757002868779</v>
       </c>
       <c r="L11">
-        <v>0.9872679553184792</v>
+        <v>1.034416651551242</v>
       </c>
       <c r="M11">
-        <v>0.9371391729891914</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.054370867586375</v>
+      </c>
+      <c r="N11">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.052083294441313</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.047028292018803</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -801,37 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9564864047466487</v>
+        <v>1.014459621566627</v>
       </c>
       <c r="D12">
-        <v>0.9857582293938048</v>
+        <v>1.03629298193959</v>
       </c>
       <c r="E12">
-        <v>0.9706238668712286</v>
+        <v>1.019622831403605</v>
       </c>
       <c r="F12">
-        <v>0.9181874021121943</v>
+        <v>1.040221140985622</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031349533925137</v>
+        <v>1.058590267336145</v>
       </c>
       <c r="J12">
-        <v>0.988253743918848</v>
+        <v>1.043664385488869</v>
       </c>
       <c r="K12">
-        <v>1.001163461928837</v>
+        <v>1.050756401148064</v>
       </c>
       <c r="L12">
-        <v>0.9863363701919041</v>
+        <v>1.03438350368426</v>
       </c>
       <c r="M12">
-        <v>0.9350698751394243</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.054616309704636</v>
+      </c>
+      <c r="N12">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.052599212439367</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.047027866595436</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -839,37 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9568053696704985</v>
+        <v>1.015300764506986</v>
       </c>
       <c r="D13">
-        <v>0.9859852999683772</v>
+        <v>1.037013038840522</v>
       </c>
       <c r="E13">
-        <v>0.9708755793100736</v>
+        <v>1.020487667437628</v>
       </c>
       <c r="F13">
-        <v>0.9186952588608319</v>
+        <v>1.04112033315495</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031441586469349</v>
+        <v>1.059044707184472</v>
       </c>
       <c r="J13">
-        <v>0.9884575923422848</v>
+        <v>1.044381086479518</v>
       </c>
       <c r="K13">
-        <v>1.001341061517973</v>
+        <v>1.05142212444273</v>
       </c>
       <c r="L13">
-        <v>0.9865368762579633</v>
+        <v>1.035189854771794</v>
       </c>
       <c r="M13">
-        <v>0.935515570436905</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.055458436317169</v>
+      </c>
+      <c r="N13">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.053538230313076</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.047496088640727</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -877,37 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.957846393470575</v>
+        <v>1.016519380897299</v>
       </c>
       <c r="D14">
-        <v>0.9867265089322892</v>
+        <v>1.037929970226014</v>
       </c>
       <c r="E14">
-        <v>0.9716973991799184</v>
+        <v>1.021586599286001</v>
       </c>
       <c r="F14">
-        <v>0.9203513814388032</v>
+        <v>1.042129697474734</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03174153730717</v>
+        <v>1.05956815715582</v>
       </c>
       <c r="J14">
-        <v>0.9891227334753607</v>
+        <v>1.045255420253745</v>
       </c>
       <c r="K14">
-        <v>1.001920465470626</v>
+        <v>1.05218643907302</v>
       </c>
       <c r="L14">
-        <v>0.9871912541908529</v>
+        <v>1.036129042001122</v>
       </c>
       <c r="M14">
-        <v>0.9369689408719298</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.056314550046254</v>
+      </c>
+      <c r="N14">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.054386361124702</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.048037868611734</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -915,37 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9584847059601077</v>
+        <v>1.017135197498338</v>
       </c>
       <c r="D15">
-        <v>0.9871810658748796</v>
+        <v>1.038369335242842</v>
       </c>
       <c r="E15">
-        <v>0.9722015263162439</v>
+        <v>1.022109867402336</v>
       </c>
       <c r="F15">
-        <v>0.9213658007704676</v>
+        <v>1.042580861072657</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.031925081359348</v>
+        <v>1.059806363634676</v>
       </c>
       <c r="J15">
-        <v>0.9895304398912371</v>
+        <v>1.045665220219131</v>
       </c>
       <c r="K15">
-        <v>1.00227554871255</v>
+        <v>1.052534090696988</v>
       </c>
       <c r="L15">
-        <v>0.9875924717273888</v>
+        <v>1.036556850382131</v>
       </c>
       <c r="M15">
-        <v>0.9378591339691713</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.056674365140333</v>
+      </c>
+      <c r="N15">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.054707912994595</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.048289433016366</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -953,37 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9621539838660995</v>
+        <v>1.020186322369177</v>
       </c>
       <c r="D16">
-        <v>0.9897951279384187</v>
+        <v>1.040431393134896</v>
       </c>
       <c r="E16">
-        <v>0.9751027353234796</v>
+        <v>1.024552612323588</v>
       </c>
       <c r="F16">
-        <v>0.9271821508427834</v>
+        <v>1.044567507754991</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032974451610629</v>
+        <v>1.060862191932178</v>
       </c>
       <c r="J16">
-        <v>0.9918721195975586</v>
+        <v>1.047547012600764</v>
       </c>
       <c r="K16">
-        <v>1.00431388417835</v>
+        <v>1.05407245092409</v>
       </c>
       <c r="L16">
-        <v>0.9898985052715559</v>
+        <v>1.038456855400511</v>
       </c>
       <c r="M16">
-        <v>0.9429626046942534</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1.0581416962435</v>
+      </c>
+      <c r="N16">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.055829402242898</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.04938018000262</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.964416489837406</v>
+        <v>1.021893555395456</v>
       </c>
       <c r="D17">
-        <v>0.9914078240225689</v>
+        <v>1.041537406086332</v>
       </c>
       <c r="E17">
-        <v>0.9768944516286043</v>
+        <v>1.025858411139202</v>
       </c>
       <c r="F17">
-        <v>0.9307563669027331</v>
+        <v>1.045561342015662</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03361642039414</v>
+        <v>1.061397588531598</v>
       </c>
       <c r="J17">
-        <v>0.9933142716000379</v>
+        <v>1.048535638277897</v>
       </c>
       <c r="K17">
-        <v>1.005568201295615</v>
+        <v>1.054854327332168</v>
       </c>
       <c r="L17">
-        <v>0.9913201077290683</v>
+        <v>1.039427746694958</v>
       </c>
       <c r="M17">
-        <v>0.9460981384749956</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>1.058815043582845</v>
+      </c>
+      <c r="N17">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.056234101918108</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.049935516068468</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9657225825287727</v>
+        <v>1.022563386477044</v>
       </c>
       <c r="D18">
-        <v>0.9923390592915817</v>
+        <v>1.041875100759072</v>
       </c>
       <c r="E18">
-        <v>0.9779297516561209</v>
+        <v>1.026257090097469</v>
       </c>
       <c r="F18">
-        <v>0.9328156318980907</v>
+        <v>1.045727678452058</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033985158248189</v>
+        <v>1.06150397028339</v>
       </c>
       <c r="J18">
-        <v>0.994146160318426</v>
+        <v>1.048800265504259</v>
       </c>
       <c r="K18">
-        <v>1.006291353954827</v>
+        <v>1.05500814902549</v>
       </c>
       <c r="L18">
-        <v>0.9921406406769986</v>
+        <v>1.039637477663629</v>
       </c>
       <c r="M18">
-        <v>0.9479044105147418</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1.058801164400914</v>
+      </c>
+      <c r="N18">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.055988571421148</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.050032842742886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,75 +1334,105 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.966165668223217</v>
+        <v>1.022311164002907</v>
       </c>
       <c r="D19">
-        <v>0.9926550172114204</v>
+        <v>1.041536309502332</v>
       </c>
       <c r="E19">
-        <v>0.9782811365662195</v>
+        <v>1.025858534135522</v>
       </c>
       <c r="F19">
-        <v>0.9335135715198155</v>
+        <v>1.045152936657687</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034109933408725</v>
+        <v>1.061234938390138</v>
       </c>
       <c r="J19">
-        <v>0.9944282668756865</v>
+        <v>1.048427132934718</v>
       </c>
       <c r="K19">
-        <v>1.006536519151761</v>
+        <v>1.054613710940663</v>
       </c>
       <c r="L19">
-        <v>0.9924189801630493</v>
+        <v>1.039183127025824</v>
       </c>
       <c r="M19">
-        <v>0.9485165592965151</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1.058174657980931</v>
+      </c>
+      <c r="N19">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.055172518292932</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.049760253473654</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>0.9641751611418695</v>
+        <v>1.019439555684763</v>
       </c>
       <c r="D20">
-        <v>0.9912357786570108</v>
+        <v>1.039271268935288</v>
       </c>
       <c r="E20">
-        <v>0.9767032366810821</v>
+        <v>1.023186109733232</v>
       </c>
       <c r="F20">
-        <v>0.9303755532448594</v>
+        <v>1.042522656437338</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033548137342338</v>
+        <v>1.059900113158618</v>
       </c>
       <c r="J20">
-        <v>0.9931605109983075</v>
+        <v>1.046241148860179</v>
       </c>
       <c r="K20">
-        <v>1.005434507057991</v>
+        <v>1.052657025116763</v>
       </c>
       <c r="L20">
-        <v>0.9911684862138208</v>
+        <v>1.036833153923356</v>
       </c>
       <c r="M20">
-        <v>0.9457640892668296</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>1.055856851216793</v>
+      </c>
+      <c r="N20">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.052819426924193</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.048380712564457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9575404862169263</v>
+        <v>1.013539655841809</v>
       </c>
       <c r="D21">
-        <v>0.9865086863312524</v>
+        <v>1.03519599690462</v>
       </c>
       <c r="E21">
-        <v>0.9714558591115577</v>
+        <v>1.018331601300118</v>
       </c>
       <c r="F21">
-        <v>0.9198649466785974</v>
+        <v>1.038513390418032</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031653473861286</v>
+        <v>1.057763448013319</v>
       </c>
       <c r="J21">
-        <v>0.9889273074419193</v>
+        <v>1.042481997742508</v>
       </c>
       <c r="K21">
-        <v>1.00175024439445</v>
+        <v>1.049539902179417</v>
       </c>
       <c r="L21">
-        <v>0.9869989677872727</v>
+        <v>1.032973804124205</v>
       </c>
       <c r="M21">
-        <v>0.9365420654298059</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1.052800091628386</v>
+      </c>
+      <c r="N21">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.050360055061189</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.04618004943751</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9532351161219835</v>
+        <v>1.009774892950052</v>
       </c>
       <c r="D22">
-        <v>0.9834445543866714</v>
+        <v>1.032608959601382</v>
       </c>
       <c r="E22">
-        <v>0.9680604811316973</v>
+        <v>1.015248536249797</v>
       </c>
       <c r="F22">
-        <v>0.9129989143623753</v>
+        <v>1.035998969997547</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.030407358681565</v>
+        <v>1.056400370364535</v>
       </c>
       <c r="J22">
-        <v>0.9861745023187507</v>
+        <v>1.040091971880005</v>
       </c>
       <c r="K22">
-        <v>0.9993512701017193</v>
+        <v>1.047560970830052</v>
       </c>
       <c r="L22">
-        <v>0.9842923774065846</v>
+        <v>1.030523850475644</v>
       </c>
       <c r="M22">
-        <v>0.9305161547868057</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>1.050889493049409</v>
+      </c>
+      <c r="N22">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.048847963173354</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.044767600672773</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9555307590531124</v>
+        <v>1.011753756362953</v>
       </c>
       <c r="D23">
-        <v>0.9850780003216639</v>
+        <v>1.033960480831404</v>
       </c>
       <c r="E23">
-        <v>0.9698699657391494</v>
+        <v>1.016860518650919</v>
       </c>
       <c r="F23">
-        <v>0.9166646012891506</v>
+        <v>1.037317467633458</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031073325143772</v>
+        <v>1.05711100690755</v>
       </c>
       <c r="J23">
-        <v>0.9876428520729363</v>
+        <v>1.041340161216012</v>
       </c>
       <c r="K23">
-        <v>1.000631158018873</v>
+        <v>1.048589963369225</v>
       </c>
       <c r="L23">
-        <v>0.9857356167544046</v>
+        <v>1.031799951539413</v>
       </c>
       <c r="M23">
-        <v>0.9337334300181113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1.05188765751292</v>
+      </c>
+      <c r="N23">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.04963793398987</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.045485624846288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9642842490643396</v>
+        <v>1.019404087947785</v>
       </c>
       <c r="D24">
-        <v>0.9913135475975361</v>
+        <v>1.039210930497708</v>
       </c>
       <c r="E24">
-        <v>0.9767896686170022</v>
+        <v>1.023119189792401</v>
       </c>
       <c r="F24">
-        <v>0.9305477051020499</v>
+        <v>1.042439052650887</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033579009129134</v>
+        <v>1.059851130870483</v>
       </c>
       <c r="J24">
-        <v>0.9932300174387069</v>
+        <v>1.04617512433905</v>
       </c>
       <c r="K24">
-        <v>1.005494943836386</v>
+        <v>1.052582754987256</v>
       </c>
       <c r="L24">
-        <v>0.9912370241501428</v>
+        <v>1.036752116591818</v>
       </c>
       <c r="M24">
-        <v>0.9459151014143483</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1.055759740866882</v>
+      </c>
+      <c r="N24">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.052702383857751</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.048301248801948</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9739135200438044</v>
+        <v>1.027929922770433</v>
       </c>
       <c r="D25">
-        <v>0.998182644234151</v>
+        <v>1.04508524019769</v>
       </c>
       <c r="E25">
-        <v>0.9844391251341523</v>
+        <v>1.030118611876762</v>
       </c>
       <c r="F25">
-        <v>0.9456673134408325</v>
+        <v>1.048185858476816</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.036263959158266</v>
+        <v>1.062865614646292</v>
       </c>
       <c r="J25">
-        <v>0.9993518604622647</v>
+        <v>1.051552555618255</v>
       </c>
       <c r="K25">
-        <v>1.010809237973111</v>
+        <v>1.057021777644339</v>
       </c>
       <c r="L25">
-        <v>0.9972839042688824</v>
+        <v>1.042266698233309</v>
       </c>
       <c r="M25">
-        <v>0.959172010582293</v>
+        <v>1.060079521842331</v>
+      </c>
+      <c r="N25">
+        <v>1.005712725503983</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.056121136526773</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.051436943663369</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_63/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_63/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.034407452511148</v>
+        <v>1.031493981234307</v>
       </c>
       <c r="D2">
-        <v>1.049542863798027</v>
+        <v>1.046018050927672</v>
       </c>
       <c r="E2">
-        <v>1.035434856898912</v>
+        <v>1.033215862834384</v>
       </c>
       <c r="F2">
-        <v>1.052574425288194</v>
+        <v>1.050001830616281</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.065104246460835</v>
+        <v>1.063016315726014</v>
       </c>
       <c r="J2">
-        <v>1.055605583679863</v>
+        <v>1.052771853052741</v>
       </c>
       <c r="K2">
-        <v>1.060352582787334</v>
+        <v>1.056871453615764</v>
       </c>
       <c r="L2">
-        <v>1.046421651366627</v>
+        <v>1.044231058928308</v>
       </c>
       <c r="M2">
-        <v>1.063346864612646</v>
+        <v>1.060805888398183</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.058706960405622</v>
+        <v>1.056695994625246</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.053744574073658</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.051291812704675</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026600488607629</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039012715376334</v>
+        <v>1.035818999024077</v>
       </c>
       <c r="D3">
-        <v>1.05273246731971</v>
+        <v>1.04889521637402</v>
       </c>
       <c r="E3">
-        <v>1.039235095519047</v>
+        <v>1.03672737532439</v>
       </c>
       <c r="F3">
-        <v>1.05571315211011</v>
+        <v>1.052910029635012</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.066687003346862</v>
+        <v>1.064405384907459</v>
       </c>
       <c r="J3">
-        <v>1.058493543007528</v>
+        <v>1.055378645447044</v>
       </c>
       <c r="K3">
-        <v>1.062732318292268</v>
+        <v>1.058938482279973</v>
       </c>
       <c r="L3">
-        <v>1.049389411099387</v>
+        <v>1.046910937353819</v>
       </c>
       <c r="M3">
-        <v>1.065679547521869</v>
+        <v>1.0629078810914</v>
       </c>
       <c r="N3">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.060553075187957</v>
+        <v>1.058359542795926</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.055424578590082</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.052750439350428</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.027096461081148</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.041933854573981</v>
+        <v>1.038565298721633</v>
       </c>
       <c r="D4">
-        <v>1.05475949897535</v>
+        <v>1.050726169281799</v>
       </c>
       <c r="E4">
-        <v>1.041649867949577</v>
+        <v>1.038962314788597</v>
       </c>
       <c r="F4">
-        <v>1.057710895082786</v>
+        <v>1.054763371299916</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.067681878292998</v>
+        <v>1.065278604610904</v>
       </c>
       <c r="J4">
-        <v>1.060322486753829</v>
+        <v>1.057031425561662</v>
       </c>
       <c r="K4">
-        <v>1.064239066499505</v>
+        <v>1.060248622196135</v>
       </c>
       <c r="L4">
-        <v>1.05127031734175</v>
+        <v>1.048612185099665</v>
       </c>
       <c r="M4">
-        <v>1.067159334509561</v>
+        <v>1.064242897843415</v>
       </c>
       <c r="N4">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.061724195059529</v>
+        <v>1.059416092968946</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.056490812862785</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.05367774515466</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.027408400852956</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.043155422773568</v>
+        <v>1.039713643462104</v>
       </c>
       <c r="D5">
-        <v>1.055610459688005</v>
+        <v>1.051495065286486</v>
       </c>
       <c r="E5">
-        <v>1.042662597208207</v>
+        <v>1.039899430268317</v>
       </c>
       <c r="F5">
-        <v>1.058548570550955</v>
+        <v>1.055540617575785</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.068097890903972</v>
+        <v>1.06564361754186</v>
       </c>
       <c r="J5">
-        <v>1.061089086803696</v>
+        <v>1.057724115972552</v>
       </c>
       <c r="K5">
-        <v>1.064872077883901</v>
+        <v>1.060799278137962</v>
       </c>
       <c r="L5">
-        <v>1.052059615581205</v>
+        <v>1.049325878494308</v>
       </c>
       <c r="M5">
-        <v>1.067780026069758</v>
+        <v>1.064802955263563</v>
       </c>
       <c r="N5">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.062215416734751</v>
+        <v>1.059859329495979</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.056945397627982</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.054074817633213</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.027540401546498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.043368399561885</v>
+        <v>1.039912945267423</v>
       </c>
       <c r="D6">
-        <v>1.05576179358903</v>
+        <v>1.051631442737476</v>
       </c>
       <c r="E6">
-        <v>1.042841563050803</v>
+        <v>1.040063815060663</v>
       </c>
       <c r="F6">
-        <v>1.05869550642793</v>
+        <v>1.05567647650692</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.068172956322727</v>
+        <v>1.065709315420923</v>
       </c>
       <c r="J6">
-        <v>1.061225731403237</v>
+        <v>1.057846992631592</v>
       </c>
       <c r="K6">
-        <v>1.064986774553411</v>
+        <v>1.060898977241182</v>
       </c>
       <c r="L6">
-        <v>1.052201028430604</v>
+        <v>1.049452727535588</v>
       </c>
       <c r="M6">
-        <v>1.067890508100149</v>
+        <v>1.064902332356713</v>
       </c>
       <c r="N6">
-        <v>1.005712725503983</v>
+        <v>1.009637762185256</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.062302853315775</v>
+        <v>1.059937977758054</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.057035043359343</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.054154735231515</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.027566060177848</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.041973713740947</v>
+        <v>1.038600118791773</v>
       </c>
       <c r="D7">
-        <v>1.054795121535235</v>
+        <v>1.050757214260279</v>
       </c>
       <c r="E7">
-        <v>1.041689325543319</v>
+        <v>1.038995283827109</v>
       </c>
       <c r="F7">
-        <v>1.057740350867598</v>
+        <v>1.054789269096235</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.067702658504737</v>
+        <v>1.065296343021163</v>
       </c>
       <c r="J7">
-        <v>1.060355712039429</v>
+        <v>1.057059692149957</v>
       </c>
       <c r="K7">
-        <v>1.064271517279638</v>
+        <v>1.060276526510916</v>
       </c>
       <c r="L7">
-        <v>1.051306502843966</v>
+        <v>1.048641940750954</v>
       </c>
       <c r="M7">
-        <v>1.067185696181323</v>
+        <v>1.064265726751833</v>
       </c>
       <c r="N7">
-        <v>1.005712725503983</v>
+        <v>1.009672849942804</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.061745057963597</v>
+        <v>1.059434160060828</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.056533425873732</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.05371915819544</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.027419977865981</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.036006565916658</v>
+        <v>1.032991416155536</v>
       </c>
       <c r="D8">
-        <v>1.050659539723076</v>
+        <v>1.047023081034954</v>
       </c>
       <c r="E8">
-        <v>1.036762148989965</v>
+        <v>1.034436581293749</v>
       </c>
       <c r="F8">
-        <v>1.053665555121025</v>
+        <v>1.051010268983279</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.065664744491363</v>
+        <v>1.063507347467407</v>
       </c>
       <c r="J8">
-        <v>1.056619466002938</v>
+        <v>1.053684049752024</v>
       </c>
       <c r="K8">
-        <v>1.061194384097098</v>
+        <v>1.057601650535906</v>
       </c>
       <c r="L8">
-        <v>1.047466155388054</v>
+        <v>1.04516944794691</v>
       </c>
       <c r="M8">
-        <v>1.064164537320502</v>
+        <v>1.06154091599873</v>
       </c>
       <c r="N8">
-        <v>1.005712725503983</v>
+        <v>1.009744168770165</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.059354077439558</v>
+        <v>1.057277706772688</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.054362211732523</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.051832823644184</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026782561544765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024979124515906</v>
+        <v>1.022656426364863</v>
       </c>
       <c r="D9">
-        <v>1.043036911801035</v>
+        <v>1.040163694201097</v>
       </c>
       <c r="E9">
-        <v>1.027681296530542</v>
+        <v>1.026071646375866</v>
       </c>
       <c r="F9">
-        <v>1.046188690803851</v>
+        <v>1.044098515444747</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.061816342391456</v>
+        <v>1.060131722095782</v>
       </c>
       <c r="J9">
-        <v>1.049679625782501</v>
+        <v>1.047433735644959</v>
       </c>
       <c r="K9">
-        <v>1.055468307966276</v>
+        <v>1.052637099466765</v>
       </c>
       <c r="L9">
-        <v>1.040340679388061</v>
+        <v>1.038755431470129</v>
       </c>
       <c r="M9">
-        <v>1.058574341396296</v>
+        <v>1.056514464160707</v>
       </c>
       <c r="N9">
-        <v>1.005712725503983</v>
+        <v>1.009756663622889</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.054929911291084</v>
+        <v>1.053299686614179</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.050310521546866</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.048319283204562</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025572207060674</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.017402019366692</v>
+        <v>1.015550452939162</v>
       </c>
       <c r="D10">
-        <v>1.037857996509546</v>
+        <v>1.035502743682883</v>
       </c>
       <c r="E10">
-        <v>1.02150530242029</v>
+        <v>1.020375042435497</v>
       </c>
       <c r="F10">
-        <v>1.041164888609207</v>
+        <v>1.039459087518721</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.059163217078503</v>
+        <v>1.057797686694994</v>
       </c>
       <c r="J10">
-        <v>1.044941818231105</v>
+        <v>1.043160399075118</v>
       </c>
       <c r="K10">
-        <v>1.051575777102594</v>
+        <v>1.049259266227377</v>
       </c>
       <c r="L10">
-        <v>1.035496832611836</v>
+        <v>1.034385912491809</v>
       </c>
       <c r="M10">
-        <v>1.054828653595624</v>
+        <v>1.053150660330078</v>
       </c>
       <c r="N10">
-        <v>1.005712725503983</v>
+        <v>1.009913726784964</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.052016109632192</v>
+        <v>1.050688190334723</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.047574866008098</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.04594923125918</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.024758454970768</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.015019013310772</v>
+        <v>1.013126988430838</v>
       </c>
       <c r="D11">
-        <v>1.036491950682912</v>
+        <v>1.034143820161442</v>
       </c>
       <c r="E11">
-        <v>1.019859788875308</v>
+        <v>1.018622783344928</v>
       </c>
       <c r="F11">
-        <v>1.040168697262741</v>
+        <v>1.038460981461565</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.05859521856295</v>
+        <v>1.057224219308255</v>
       </c>
       <c r="J11">
-        <v>1.043780061662705</v>
+        <v>1.04196368531888</v>
       </c>
       <c r="K11">
-        <v>1.050757002868779</v>
+        <v>1.048449334088512</v>
       </c>
       <c r="L11">
-        <v>1.034416651551242</v>
+        <v>1.033201843940264</v>
       </c>
       <c r="M11">
-        <v>1.054370867586375</v>
+        <v>1.052692286589149</v>
       </c>
       <c r="N11">
-        <v>1.005712725503983</v>
+        <v>1.010219287442624</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.052083294441313</v>
+        <v>1.050755558275205</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.047028292018803</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.045412141479672</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024732640467034</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.014459621566627</v>
+        <v>1.012461538039001</v>
       </c>
       <c r="D12">
-        <v>1.03629298193959</v>
+        <v>1.033867077835701</v>
       </c>
       <c r="E12">
-        <v>1.019622831403605</v>
+        <v>1.018228109804073</v>
       </c>
       <c r="F12">
-        <v>1.040221140985622</v>
+        <v>1.038450364968126</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.058590267336145</v>
+        <v>1.057164228606997</v>
       </c>
       <c r="J12">
-        <v>1.043664385488869</v>
+        <v>1.0417477090507</v>
       </c>
       <c r="K12">
-        <v>1.050756401148064</v>
+        <v>1.048372982059498</v>
       </c>
       <c r="L12">
-        <v>1.03438350368426</v>
+        <v>1.033014226440254</v>
       </c>
       <c r="M12">
-        <v>1.054616309704636</v>
+        <v>1.052876217618431</v>
       </c>
       <c r="N12">
-        <v>1.005712725503983</v>
+        <v>1.01035478389643</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.052599212439367</v>
+        <v>1.051223275122204</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.047027866595436</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.045358160613741</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.024839067478368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.015300764506986</v>
+        <v>1.013134727708221</v>
       </c>
       <c r="D13">
-        <v>1.037013038840522</v>
+        <v>1.034434741817634</v>
       </c>
       <c r="E13">
-        <v>1.020487667437628</v>
+        <v>1.018879963454215</v>
       </c>
       <c r="F13">
-        <v>1.04112033315495</v>
+        <v>1.039232183532524</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.059044707184472</v>
+        <v>1.057519131894676</v>
       </c>
       <c r="J13">
-        <v>1.044381086479518</v>
+        <v>1.042302791846647</v>
       </c>
       <c r="K13">
-        <v>1.05142212444273</v>
+        <v>1.048888758675278</v>
       </c>
       <c r="L13">
-        <v>1.035189854771794</v>
+        <v>1.03361132609115</v>
       </c>
       <c r="M13">
-        <v>1.055458436317169</v>
+        <v>1.053602827648844</v>
       </c>
       <c r="N13">
-        <v>1.005712725503983</v>
+        <v>1.010324862518226</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.053538230313076</v>
+        <v>1.052071310925607</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.047496088640727</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.045720118482949</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025069843679168</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.016519380897299</v>
+        <v>1.014210981250723</v>
       </c>
       <c r="D14">
-        <v>1.037929970226014</v>
+        <v>1.035213794926824</v>
       </c>
       <c r="E14">
-        <v>1.021586599286001</v>
+        <v>1.019808619610775</v>
       </c>
       <c r="F14">
-        <v>1.042129697474734</v>
+        <v>1.040136903643684</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.05956815715582</v>
+        <v>1.057954470308933</v>
       </c>
       <c r="J14">
-        <v>1.045255420253745</v>
+        <v>1.043039115538057</v>
       </c>
       <c r="K14">
-        <v>1.05218643907302</v>
+        <v>1.049516981831469</v>
       </c>
       <c r="L14">
-        <v>1.036129042001122</v>
+        <v>1.03438289133745</v>
       </c>
       <c r="M14">
-        <v>1.056314550046254</v>
+        <v>1.054355645411118</v>
       </c>
       <c r="N14">
-        <v>1.005712725503983</v>
+        <v>1.010230087706879</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.054386361124702</v>
+        <v>1.05283798785575</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.048037868611734</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.046165812914464</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025286756976511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.017135197498338</v>
+        <v>1.014775626152058</v>
       </c>
       <c r="D15">
-        <v>1.038369335242842</v>
+        <v>1.035600527448986</v>
       </c>
       <c r="E15">
-        <v>1.022109867402336</v>
+        <v>1.020274631678513</v>
       </c>
       <c r="F15">
-        <v>1.042580861072657</v>
+        <v>1.040548615285312</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.059806363634676</v>
+        <v>1.058159661414211</v>
       </c>
       <c r="J15">
-        <v>1.045665220219131</v>
+        <v>1.043398931328303</v>
       </c>
       <c r="K15">
-        <v>1.052534090696988</v>
+        <v>1.049812534108104</v>
       </c>
       <c r="L15">
-        <v>1.036556850382131</v>
+        <v>1.034754203474817</v>
       </c>
       <c r="M15">
-        <v>1.056674365140333</v>
+        <v>1.054676408352305</v>
       </c>
       <c r="N15">
-        <v>1.005712725503983</v>
+        <v>1.01017436097146</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.054707912994595</v>
+        <v>1.053128712648587</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.048289433016366</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.046381115156025</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.02537262596813</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020186322369177</v>
+        <v>1.017664942593014</v>
       </c>
       <c r="D16">
-        <v>1.040431393134896</v>
+        <v>1.037476325077114</v>
       </c>
       <c r="E16">
-        <v>1.024552612323588</v>
+        <v>1.022563288350006</v>
       </c>
       <c r="F16">
-        <v>1.044567507754991</v>
+        <v>1.042398631939927</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.060862191932178</v>
+        <v>1.059102335056095</v>
       </c>
       <c r="J16">
-        <v>1.047547012600764</v>
+        <v>1.045120208470717</v>
       </c>
       <c r="K16">
-        <v>1.05407245092409</v>
+        <v>1.051165577741529</v>
       </c>
       <c r="L16">
-        <v>1.038456855400511</v>
+        <v>1.036501247586731</v>
       </c>
       <c r="M16">
-        <v>1.0581416962435</v>
+        <v>1.056007800079571</v>
       </c>
       <c r="N16">
-        <v>1.005712725503983</v>
+        <v>1.009896956512875</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.055829402242898</v>
+        <v>1.054142706475939</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.04938018000262</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.047341138775464</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02568211282948</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021893555395456</v>
+        <v>1.019320269090579</v>
       </c>
       <c r="D17">
-        <v>1.041537406086332</v>
+        <v>1.038509820254643</v>
       </c>
       <c r="E17">
-        <v>1.025858411139202</v>
+        <v>1.023836920009714</v>
       </c>
       <c r="F17">
-        <v>1.045561342015662</v>
+        <v>1.043340904731743</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.061397588531598</v>
+        <v>1.059595762987694</v>
       </c>
       <c r="J17">
-        <v>1.048535638277897</v>
+        <v>1.046055722183309</v>
       </c>
       <c r="K17">
-        <v>1.054854327332168</v>
+        <v>1.051874721424798</v>
       </c>
       <c r="L17">
-        <v>1.039427746694958</v>
+        <v>1.037439523194056</v>
       </c>
       <c r="M17">
-        <v>1.058815043582845</v>
+        <v>1.056629414221601</v>
       </c>
       <c r="N17">
-        <v>1.005712725503983</v>
+        <v>1.009769981040597</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.056234101918108</v>
+        <v>1.054506345551688</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.049935516068468</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.047845299330552</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.02580600337052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022563386477044</v>
+        <v>1.020039476658098</v>
       </c>
       <c r="D18">
-        <v>1.041875100759072</v>
+        <v>1.038876513110686</v>
       </c>
       <c r="E18">
-        <v>1.026257090097469</v>
+        <v>1.024320141606347</v>
       </c>
       <c r="F18">
-        <v>1.045727678452058</v>
+        <v>1.043532045076546</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.06150397028339</v>
+        <v>1.059724534604263</v>
       </c>
       <c r="J18">
-        <v>1.048800265504259</v>
+        <v>1.046366223295976</v>
       </c>
       <c r="K18">
-        <v>1.05500814902549</v>
+        <v>1.052056311656783</v>
       </c>
       <c r="L18">
-        <v>1.039637477663629</v>
+        <v>1.037731879312297</v>
       </c>
       <c r="M18">
-        <v>1.058801164400914</v>
+        <v>1.056639407513023</v>
       </c>
       <c r="N18">
-        <v>1.005712725503983</v>
+        <v>1.009714664310362</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.055988571421148</v>
+        <v>1.05427933865644</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.050032842742886</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.047961114134861</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025762967274896</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,105 +1493,123 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022311164002907</v>
+        <v>1.019925205457121</v>
       </c>
       <c r="D19">
-        <v>1.041536309502332</v>
+        <v>1.03865634377</v>
       </c>
       <c r="E19">
-        <v>1.025858534135522</v>
+        <v>1.024105815290316</v>
       </c>
       <c r="F19">
-        <v>1.045152936657687</v>
+        <v>1.043049431569184</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.061234938390138</v>
+        <v>1.059534624722375</v>
       </c>
       <c r="J19">
-        <v>1.048427132934718</v>
+        <v>1.046125678558675</v>
       </c>
       <c r="K19">
-        <v>1.054613710940663</v>
+        <v>1.051778438446228</v>
       </c>
       <c r="L19">
-        <v>1.039183127025824</v>
+        <v>1.037458646948758</v>
       </c>
       <c r="M19">
-        <v>1.058174657980931</v>
+        <v>1.056103477624105</v>
       </c>
       <c r="N19">
-        <v>1.005712725503983</v>
+        <v>1.009699109624638</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.055172518292932</v>
+        <v>1.053534381458439</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.049760253473654</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.047771567590374</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025580924770015</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.019439555684763</v>
+        <v>1.017448958361941</v>
       </c>
       <c r="D20">
-        <v>1.039271268935288</v>
+        <v>1.03676762808974</v>
       </c>
       <c r="E20">
-        <v>1.023186109733232</v>
+        <v>1.02190963673685</v>
       </c>
       <c r="F20">
-        <v>1.042522656437338</v>
+        <v>1.04070594887816</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.059900113158618</v>
+        <v>1.05844244702293</v>
       </c>
       <c r="J20">
-        <v>1.046241148860179</v>
+        <v>1.04432343590308</v>
       </c>
       <c r="K20">
-        <v>1.052657025116763</v>
+        <v>1.050193370307507</v>
       </c>
       <c r="L20">
-        <v>1.036833153923356</v>
+        <v>1.035577869652701</v>
       </c>
       <c r="M20">
-        <v>1.055856851216793</v>
+        <v>1.054068902635493</v>
       </c>
       <c r="N20">
-        <v>1.005712725503983</v>
+        <v>1.009781698284326</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.052819426924193</v>
+        <v>1.051404475741625</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.048380712564457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.046655161890197</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.024999489082652</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.013539655841809</v>
+        <v>1.011959957283145</v>
       </c>
       <c r="D21">
-        <v>1.03519599690462</v>
+        <v>1.033130759704792</v>
       </c>
       <c r="E21">
-        <v>1.018331601300118</v>
+        <v>1.017485363677937</v>
       </c>
       <c r="F21">
-        <v>1.038513390418032</v>
+        <v>1.037024162379672</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.057763448013319</v>
+        <v>1.056577540173828</v>
       </c>
       <c r="J21">
-        <v>1.042481997742508</v>
+        <v>1.040966010672295</v>
       </c>
       <c r="K21">
-        <v>1.049539902179417</v>
+        <v>1.047510517465822</v>
       </c>
       <c r="L21">
-        <v>1.032973804124205</v>
+        <v>1.032142873597764</v>
       </c>
       <c r="M21">
-        <v>1.052800091628386</v>
+        <v>1.051336484815619</v>
       </c>
       <c r="N21">
-        <v>1.005712725503983</v>
+        <v>1.010338911748788</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.050360055061189</v>
+        <v>1.049201723066594</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.04618004943751</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.044761873914068</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024315018267342</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.009774892950052</v>
+        <v>1.008456002641389</v>
       </c>
       <c r="D22">
-        <v>1.032608959601382</v>
+        <v>1.03082103205314</v>
       </c>
       <c r="E22">
-        <v>1.015248536249797</v>
+        <v>1.014673379083885</v>
       </c>
       <c r="F22">
-        <v>1.035998969997547</v>
+        <v>1.034717275419011</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.056400370364535</v>
+        <v>1.055386005812154</v>
       </c>
       <c r="J22">
-        <v>1.040091971880005</v>
+        <v>1.038829488218792</v>
       </c>
       <c r="K22">
-        <v>1.047560970830052</v>
+        <v>1.045805684905076</v>
       </c>
       <c r="L22">
-        <v>1.030523850475644</v>
+        <v>1.02995965215666</v>
       </c>
       <c r="M22">
-        <v>1.050889493049409</v>
+        <v>1.049630984303327</v>
       </c>
       <c r="N22">
-        <v>1.005712725503983</v>
+        <v>1.01067819198903</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.048847963173354</v>
+        <v>1.047851948575227</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.044767600672773</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043541919592544</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.023881502301378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011753756362953</v>
+        <v>1.010301155959682</v>
       </c>
       <c r="D23">
-        <v>1.033960480831404</v>
+        <v>1.032029341954517</v>
       </c>
       <c r="E23">
-        <v>1.016860518650919</v>
+        <v>1.016148061380176</v>
       </c>
       <c r="F23">
-        <v>1.037317467633458</v>
+        <v>1.035928773712713</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.05711100690755</v>
+        <v>1.05600833475222</v>
       </c>
       <c r="J23">
-        <v>1.041340161216012</v>
+        <v>1.039947798675736</v>
       </c>
       <c r="K23">
-        <v>1.048589963369225</v>
+        <v>1.04669316004412</v>
       </c>
       <c r="L23">
-        <v>1.031799951539413</v>
+        <v>1.03110070335382</v>
       </c>
       <c r="M23">
-        <v>1.05188765751292</v>
+        <v>1.050523430918316</v>
       </c>
       <c r="N23">
-        <v>1.005712725503983</v>
+        <v>1.010446637671561</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.04963793398987</v>
+        <v>1.048558252788783</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.045485624846288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.044158937484357</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.024102271598619</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.019404087947785</v>
+        <v>1.017438760335227</v>
       </c>
       <c r="D24">
-        <v>1.039210930497708</v>
+        <v>1.036728328400262</v>
       </c>
       <c r="E24">
-        <v>1.023119189792401</v>
+        <v>1.021876774044881</v>
       </c>
       <c r="F24">
-        <v>1.042439052650887</v>
+        <v>1.04063895531109</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.059851130870483</v>
+        <v>1.0584077127495</v>
       </c>
       <c r="J24">
-        <v>1.04617512433905</v>
+        <v>1.044281659829896</v>
       </c>
       <c r="K24">
-        <v>1.052582754987256</v>
+        <v>1.050139757217774</v>
       </c>
       <c r="L24">
-        <v>1.036752116591818</v>
+        <v>1.035530300408178</v>
       </c>
       <c r="M24">
-        <v>1.055759740866882</v>
+        <v>1.053988108524982</v>
       </c>
       <c r="N24">
-        <v>1.005712725503983</v>
+        <v>1.009776345404437</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.052702383857751</v>
+        <v>1.05130027755538</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.048301248801948</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.046587617574362</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.02496289139613</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027929922770433</v>
+        <v>1.025413255232497</v>
       </c>
       <c r="D25">
-        <v>1.04508524019769</v>
+        <v>1.042001552817078</v>
       </c>
       <c r="E25">
-        <v>1.030118611876762</v>
+        <v>1.028305873435507</v>
       </c>
       <c r="F25">
-        <v>1.048185858476816</v>
+        <v>1.045939188308287</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.062865614646292</v>
+        <v>1.061050329284486</v>
       </c>
       <c r="J25">
-        <v>1.051552555618255</v>
+        <v>1.049114619048261</v>
       </c>
       <c r="K25">
-        <v>1.057021777644339</v>
+        <v>1.053981049701192</v>
       </c>
       <c r="L25">
-        <v>1.042266698233309</v>
+        <v>1.040480112107736</v>
       </c>
       <c r="M25">
-        <v>1.060079521842331</v>
+        <v>1.057863885723972</v>
       </c>
       <c r="N25">
-        <v>1.005712725503983</v>
+        <v>1.009712335287388</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.056121136526773</v>
+        <v>1.054367644019859</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.051436943663369</v>
+        <v>1.049300386073188</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025910438145719</v>
       </c>
     </row>
   </sheetData>
